--- a/Nextion/EEPROM_settings_N13.xlsx
+++ b/Nextion/EEPROM_settings_N13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cadd\RoseEngine\Nextion\RoseEngine_13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABD54B4-FCF7-440C-832C-AA62D08C7D61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C56F6FD-EA7D-4FDB-BF03-44A268B8CCE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31680" yWindow="255" windowWidth="21405" windowHeight="15855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30075" yWindow="345" windowWidth="21405" windowHeight="15855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Eeprom" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,6 @@
     <definedName name="TotalSteps">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="487">
   <si>
     <t>Index</t>
   </si>
@@ -1529,6 +1528,12 @@
   </si>
   <si>
     <t>Sync: Distance Text</t>
+  </si>
+  <si>
+    <t>Screen Brightness</t>
+  </si>
+  <si>
+    <t>More</t>
   </si>
 </sst>
 </file>
@@ -1748,7 +1753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1798,6 +1803,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2128,7 +2136,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G319" sqref="G319"/>
+      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5586,12 +5594,6 @@
       <c r="I97" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="J97" s="5">
-        <v>566</v>
-      </c>
-      <c r="K97" s="4">
-        <v>569</v>
-      </c>
       <c r="L97" s="5">
         <v>136</v>
       </c>
@@ -5602,78 +5604,66 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C98" s="4">
-        <v>570</v>
+        <v>485</v>
+      </c>
+      <c r="C98" s="5">
+        <v>566</v>
       </c>
       <c r="D98" s="4">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E98" s="4" t="str">
         <f>DEC2HEX(F98)</f>
-        <v>C5</v>
+        <v>A9</v>
       </c>
       <c r="F98" s="5">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="G98" s="5" t="str">
         <f>CHAR(F98)</f>
-        <v>Å</v>
-      </c>
-      <c r="H98" s="5">
-        <v>0</v>
-      </c>
-      <c r="I98" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="L98" s="4">
-        <v>137</v>
-      </c>
-      <c r="M98" s="4" t="str">
-        <f>"wepo "&amp;H98&amp;","&amp;C98&amp;" //"&amp;L98</f>
-        <v>wepo 0,570 //137</v>
-      </c>
+        <v>©</v>
+      </c>
+      <c r="H98" s="5"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C99" s="4">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D99" s="4">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E99" s="4" t="str">
         <f>DEC2HEX(F99)</f>
-        <v>C4</v>
+        <v>C5</v>
       </c>
       <c r="F99" s="5">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G99" s="5" t="str">
         <f>CHAR(F99)</f>
-        <v>Ä</v>
+        <v>Å</v>
       </c>
       <c r="H99" s="5">
         <v>0</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="L99" s="5">
-        <v>138</v>
+        <v>216</v>
+      </c>
+      <c r="L99" s="4">
+        <v>137</v>
       </c>
       <c r="M99" s="4" t="str">
         <f>"wepo "&amp;H99&amp;","&amp;C99&amp;" //"&amp;L99</f>
-        <v>wepo 0,574 //138</v>
+        <v>wepo 0,570 //137</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -5681,34 +5671,37 @@
         <v>0</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C100" s="4">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="D100" s="4">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="E100" s="4" t="str">
         <f>DEC2HEX(F100)</f>
-        <v>BF</v>
+        <v>C4</v>
       </c>
       <c r="F100" s="5">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G100" s="5" t="str">
         <f>CHAR(F100)</f>
-        <v>¿</v>
+        <v>Ä</v>
       </c>
       <c r="H100" s="5">
         <v>0</v>
       </c>
-      <c r="L100" s="4">
-        <v>139</v>
+      <c r="I100" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="L100" s="5">
+        <v>138</v>
       </c>
       <c r="M100" s="4" t="str">
         <f>"wepo "&amp;H100&amp;","&amp;C100&amp;" //"&amp;L100</f>
-        <v>wepo 0,582 //139</v>
+        <v>wepo 0,574 //138</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -5716,66 +5709,74 @@
         <v>0</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C101" s="4">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="D101" s="4">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E101" s="4" t="str">
         <f>DEC2HEX(F101)</f>
-        <v>C4</v>
+        <v>BF</v>
       </c>
       <c r="F101" s="5">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G101" s="5" t="str">
         <f>CHAR(F101)</f>
-        <v>Ä</v>
+        <v>¿</v>
       </c>
       <c r="H101" s="5">
         <v>0</v>
       </c>
-      <c r="I101" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
-      <c r="L101" s="5">
-        <v>140</v>
+      <c r="L101" s="4">
+        <v>139</v>
       </c>
       <c r="M101" s="4" t="str">
         <f>"wepo "&amp;H101&amp;","&amp;C101&amp;" //"&amp;L101</f>
-        <v>wepo 0,592 //140</v>
+        <v>wepo 0,582 //139</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>251</v>
+        <v>136</v>
       </c>
       <c r="C102" s="4">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="D102" s="4">
-        <v>603</v>
+        <v>595</v>
+      </c>
+      <c r="E102" s="4" t="str">
+        <f>DEC2HEX(F102)</f>
+        <v>C4</v>
+      </c>
+      <c r="F102" s="5">
+        <v>196</v>
+      </c>
+      <c r="G102" s="5" t="str">
+        <f>CHAR(F102)</f>
+        <v>Ä</v>
       </c>
       <c r="H102" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="L102" s="4">
-        <v>141</v>
+        <v>224</v>
+      </c>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="5">
+        <v>140</v>
       </c>
       <c r="M102" s="4" t="str">
         <f>"wepo "&amp;H102&amp;","&amp;C102&amp;" //"&amp;L102</f>
-        <v>wepo 1,600 //141</v>
+        <v>wepo 0,592 //140</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -5783,51 +5784,40 @@
         <v>264</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C103" s="4">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D103" s="4">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="H103" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="L103" s="5">
-        <v>142</v>
+      <c r="L103" s="4">
+        <v>141</v>
       </c>
       <c r="M103" s="4" t="str">
         <f>"wepo "&amp;H103&amp;","&amp;C103&amp;" //"&amp;L103</f>
-        <v>wepo 0,604 //142</v>
+        <v>wepo 1,600 //141</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>120</v>
+        <v>264</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="C104" s="4">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D104" s="4">
-        <v>611</v>
-      </c>
-      <c r="E104" s="4" t="str">
-        <f>DEC2HEX(F104)</f>
-        <v>42</v>
-      </c>
-      <c r="F104" s="5">
-        <v>66</v>
-      </c>
-      <c r="G104" s="5" t="str">
-        <f>CHAR(F104)</f>
-        <v>B</v>
+        <v>607</v>
       </c>
       <c r="H104" s="5">
         <v>0</v>
@@ -5835,225 +5825,228 @@
       <c r="I104" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="L104" s="4">
-        <v>143</v>
+      <c r="L104" s="5">
+        <v>142</v>
       </c>
       <c r="M104" s="4" t="str">
         <f>"wepo "&amp;H104&amp;","&amp;C104&amp;" //"&amp;L104</f>
-        <v>wepo 0,608 //143</v>
+        <v>wepo 0,604 //142</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C105" s="4">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D105" s="4">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="E105" s="4" t="str">
         <f>DEC2HEX(F105)</f>
-        <v>BE</v>
+        <v>42</v>
       </c>
       <c r="F105" s="5">
-        <v>190</v>
+        <v>66</v>
       </c>
       <c r="G105" s="5" t="str">
         <f>CHAR(F105)</f>
-        <v>¾</v>
-      </c>
-      <c r="H105" s="5"/>
+        <v>B</v>
+      </c>
+      <c r="H105" s="5">
+        <v>0</v>
+      </c>
       <c r="I105" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="J105" s="5">
-        <v>626</v>
-      </c>
-      <c r="K105" s="5">
-        <v>627</v>
-      </c>
-      <c r="L105" s="5">
-        <v>144</v>
+        <v>216</v>
+      </c>
+      <c r="L105" s="4">
+        <v>143</v>
+      </c>
+      <c r="M105" s="4" t="str">
+        <f>"wepo "&amp;H105&amp;","&amp;C105&amp;" //"&amp;L105</f>
+        <v>wepo 0,608 //143</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>483</v>
+        <v>169</v>
       </c>
       <c r="C106" s="4">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="D106" s="4">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="E106" s="4" t="str">
         <f>DEC2HEX(F106)</f>
-        <v>C0</v>
+        <v>BE</v>
       </c>
       <c r="F106" s="5">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G106" s="5" t="str">
         <f>CHAR(F106)</f>
-        <v>À</v>
-      </c>
-      <c r="H106" s="5">
-        <v>0</v>
-      </c>
-      <c r="L106" s="4">
-        <v>145</v>
-      </c>
-      <c r="M106" s="4" t="str">
-        <f>"wepo "&amp;H106&amp;","&amp;C106&amp;" //"&amp;L106</f>
-        <v>wepo 0,628 //145</v>
+        <v>¾</v>
+      </c>
+      <c r="H106" s="5"/>
+      <c r="I106" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="J106" s="5">
+        <v>626</v>
+      </c>
+      <c r="K106" s="5">
+        <v>627</v>
+      </c>
+      <c r="L106" s="5">
+        <v>144</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C107" s="5">
-        <v>638</v>
+        <v>483</v>
+      </c>
+      <c r="C107" s="4">
+        <v>628</v>
       </c>
       <c r="D107" s="4">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="E107" s="4" t="str">
         <f>DEC2HEX(F107)</f>
-        <v>FB</v>
+        <v>C0</v>
       </c>
       <c r="F107" s="5">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="G107" s="5" t="str">
         <f>CHAR(F107)</f>
-        <v>û</v>
+        <v>À</v>
       </c>
       <c r="H107" s="5">
         <v>0</v>
       </c>
-      <c r="L107" s="5">
-        <v>146</v>
+      <c r="L107" s="4">
+        <v>145</v>
       </c>
       <c r="M107" s="4" t="str">
         <f>"wepo "&amp;H107&amp;","&amp;C107&amp;" //"&amp;L107</f>
-        <v>wepo 0,638 //146</v>
+        <v>wepo 0,628 //145</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="C108" s="4">
-        <v>648</v>
+        <v>127</v>
+      </c>
+      <c r="C108" s="5">
+        <v>638</v>
       </c>
       <c r="D108" s="4">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="E108" s="4" t="str">
         <f>DEC2HEX(F108)</f>
-        <v>C1</v>
+        <v>FB</v>
       </c>
       <c r="F108" s="5">
-        <v>193</v>
+        <v>251</v>
       </c>
       <c r="G108" s="5" t="str">
         <f>CHAR(F108)</f>
-        <v>Á</v>
+        <v>û</v>
       </c>
       <c r="H108" s="5">
         <v>0</v>
       </c>
-      <c r="L108" s="4">
-        <v>147</v>
+      <c r="L108" s="5">
+        <v>146</v>
       </c>
       <c r="M108" s="4" t="str">
         <f>"wepo "&amp;H108&amp;","&amp;C108&amp;" //"&amp;L108</f>
-        <v>wepo 0,648 //147</v>
+        <v>wepo 0,638 //146</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C109" s="5">
-        <v>658</v>
+        <v>484</v>
+      </c>
+      <c r="C109" s="4">
+        <v>648</v>
       </c>
       <c r="D109" s="4">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="E109" s="4" t="str">
         <f>DEC2HEX(F109)</f>
-        <v>E6</v>
+        <v>C1</v>
       </c>
       <c r="F109" s="5">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="G109" s="5" t="str">
         <f>CHAR(F109)</f>
-        <v>æ</v>
+        <v>Á</v>
       </c>
       <c r="H109" s="5">
         <v>0</v>
       </c>
-      <c r="L109" s="5">
-        <v>148</v>
+      <c r="L109" s="4">
+        <v>147</v>
       </c>
       <c r="M109" s="4" t="str">
         <f>"wepo "&amp;H109&amp;","&amp;C109&amp;" //"&amp;L109</f>
-        <v>wepo 0,658 //148</v>
+        <v>wepo 0,648 //147</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C110" s="5">
-        <v>678</v>
-      </c>
-      <c r="D110" s="4">
-        <v>687</v>
-      </c>
-      <c r="E110" s="4" t="str">
+        <v>168</v>
+      </c>
+      <c r="C110" s="35">
+        <v>658</v>
+      </c>
+      <c r="D110" s="33">
+        <v>667</v>
+      </c>
+      <c r="E110" s="33" t="str">
         <f>DEC2HEX(F110)</f>
-        <v>FC</v>
-      </c>
-      <c r="F110" s="5">
-        <v>252</v>
+        <v>E6</v>
+      </c>
+      <c r="F110" s="35">
+        <v>230</v>
       </c>
       <c r="G110" s="5" t="str">
         <f>CHAR(F110)</f>
-        <v>ü</v>
+        <v>æ</v>
       </c>
       <c r="H110" s="5">
         <v>0</v>
       </c>
       <c r="L110" s="5">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M110" s="4" t="str">
         <f>"wepo "&amp;H110&amp;","&amp;C110&amp;" //"&amp;L110</f>
-        <v>wepo 0,678 //150</v>
+        <v>wepo 0,658 //148</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -6061,157 +6054,157 @@
         <v>121</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C111" s="5">
-        <v>698</v>
-      </c>
-      <c r="D111" s="4">
-        <v>701</v>
-      </c>
-      <c r="E111" s="4" t="str">
+        <v>165</v>
+      </c>
+      <c r="C111" s="35">
+        <v>678</v>
+      </c>
+      <c r="D111" s="33">
+        <v>687</v>
+      </c>
+      <c r="E111" s="33" t="str">
         <f>DEC2HEX(F111)</f>
-        <v>B6</v>
-      </c>
-      <c r="F111" s="5">
-        <v>182</v>
+        <v>FC</v>
+      </c>
+      <c r="F111" s="35">
+        <v>252</v>
       </c>
       <c r="G111" s="5" t="str">
         <f>CHAR(F111)</f>
-        <v>¶</v>
+        <v>ü</v>
       </c>
       <c r="H111" s="5">
-        <v>4</v>
-      </c>
-      <c r="I111" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="J111" s="5">
-        <v>702</v>
-      </c>
-      <c r="K111" s="5">
-        <v>707</v>
+        <v>0</v>
       </c>
       <c r="L111" s="5">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M111" s="4" t="str">
         <f>"wepo "&amp;H111&amp;","&amp;C111&amp;" //"&amp;L111</f>
-        <v>wepo 4,698 //152</v>
+        <v>wepo 0,678 //150</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C112" s="4">
-        <v>708</v>
+        <v>225</v>
+      </c>
+      <c r="C112" s="5">
+        <v>698</v>
       </c>
       <c r="D112" s="4">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="E112" s="4" t="str">
         <f>DEC2HEX(F112)</f>
-        <v>C4</v>
+        <v>B6</v>
       </c>
       <c r="F112" s="5">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="G112" s="5" t="str">
         <f>CHAR(F112)</f>
-        <v>Ä</v>
+        <v>¶</v>
       </c>
       <c r="H112" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="L112" s="4">
-        <v>153</v>
+        <v>226</v>
+      </c>
+      <c r="J112" s="5">
+        <v>702</v>
+      </c>
+      <c r="K112" s="5">
+        <v>707</v>
+      </c>
+      <c r="L112" s="5">
+        <v>152</v>
       </c>
       <c r="M112" s="4" t="str">
         <f>"wepo "&amp;H112&amp;","&amp;C112&amp;" //"&amp;L112</f>
-        <v>wepo 0,708 //153</v>
+        <v>wepo 4,698 //152</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C113" s="4">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D113" s="4">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="E113" s="4" t="str">
         <f>DEC2HEX(F113)</f>
-        <v>6F</v>
-      </c>
-      <c r="F113" s="4">
-        <v>111</v>
+        <v>C4</v>
+      </c>
+      <c r="F113" s="5">
+        <v>196</v>
       </c>
       <c r="G113" s="5" t="str">
         <f>CHAR(F113)</f>
-        <v>o</v>
+        <v>Ä</v>
       </c>
       <c r="H113" s="5">
-        <v>50</v>
-      </c>
-      <c r="J113" s="5">
-        <v>716</v>
-      </c>
-      <c r="K113" s="5">
-        <v>747</v>
-      </c>
-      <c r="L113" s="5">
-        <v>154</v>
+        <v>0</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="L113" s="4">
+        <v>153</v>
       </c>
       <c r="M113" s="4" t="str">
         <f>"wepo "&amp;H113&amp;","&amp;C113&amp;" //"&amp;L113</f>
-        <v>wepo 50,712 //154</v>
+        <v>wepo 0,708 //153</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="C114" s="4">
-        <v>748</v>
+        <v>712</v>
       </c>
       <c r="D114" s="4">
-        <v>751</v>
+        <v>715</v>
       </c>
       <c r="E114" s="4" t="str">
         <f>DEC2HEX(F114)</f>
-        <v>CA</v>
-      </c>
-      <c r="F114" s="5">
-        <v>202</v>
+        <v>6F</v>
+      </c>
+      <c r="F114" s="4">
+        <v>111</v>
       </c>
       <c r="G114" s="5" t="str">
         <f>CHAR(F114)</f>
-        <v>Ê</v>
+        <v>o</v>
       </c>
       <c r="H114" s="5">
-        <v>5000</v>
-      </c>
-      <c r="L114" s="4">
-        <v>155</v>
+        <v>50</v>
+      </c>
+      <c r="J114" s="5">
+        <v>716</v>
+      </c>
+      <c r="K114" s="5">
+        <v>747</v>
+      </c>
+      <c r="L114" s="5">
+        <v>154</v>
       </c>
       <c r="M114" s="4" t="str">
         <f>"wepo "&amp;H114&amp;","&amp;C114&amp;" //"&amp;L114</f>
-        <v>wepo 5000,748 //155</v>
+        <v>wepo 50,712 //154</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -6219,34 +6212,34 @@
         <v>175</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C115" s="5">
-        <v>752</v>
-      </c>
-      <c r="D115" s="5">
-        <v>755</v>
-      </c>
-      <c r="E115" s="6" t="str">
+        <v>187</v>
+      </c>
+      <c r="C115" s="4">
+        <v>748</v>
+      </c>
+      <c r="D115" s="4">
+        <v>751</v>
+      </c>
+      <c r="E115" s="4" t="str">
         <f>DEC2HEX(F115)</f>
-        <v>CB</v>
+        <v>CA</v>
       </c>
       <c r="F115" s="5">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G115" s="5" t="str">
         <f>CHAR(F115)</f>
-        <v>Ë</v>
+        <v>Ê</v>
       </c>
       <c r="H115" s="5">
-        <v>0</v>
-      </c>
-      <c r="L115" s="5">
-        <v>156</v>
+        <v>5000</v>
+      </c>
+      <c r="L115" s="4">
+        <v>155</v>
       </c>
       <c r="M115" s="4" t="str">
         <f>"wepo "&amp;H115&amp;","&amp;C115&amp;" //"&amp;L115</f>
-        <v>wepo 0,752 //156</v>
+        <v>wepo 5000,748 //155</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -6254,148 +6247,148 @@
         <v>175</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C116" s="5">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="D116" s="5">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="E116" s="6" t="str">
         <f>DEC2HEX(F116)</f>
-        <v>CC</v>
+        <v>CB</v>
       </c>
       <c r="F116" s="5">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G116" s="5" t="str">
         <f>CHAR(F116)</f>
-        <v>Ì</v>
+        <v>Ë</v>
       </c>
       <c r="H116" s="5">
         <v>0</v>
       </c>
-      <c r="L116" s="4">
-        <v>157</v>
+      <c r="L116" s="5">
+        <v>156</v>
       </c>
       <c r="M116" s="4" t="str">
         <f>"wepo "&amp;H116&amp;","&amp;C116&amp;" //"&amp;L116</f>
-        <v>wepo 0,756 //157</v>
+        <v>wepo 0,752 //156</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>262</v>
+        <v>189</v>
       </c>
       <c r="C117" s="5">
-        <v>766</v>
-      </c>
-      <c r="D117" s="4">
-        <v>769</v>
-      </c>
-      <c r="E117" s="4" t="str">
+        <v>756</v>
+      </c>
+      <c r="D117" s="5">
+        <v>765</v>
+      </c>
+      <c r="E117" s="6" t="str">
         <f>DEC2HEX(F117)</f>
-        <v>FD</v>
+        <v>CC</v>
       </c>
       <c r="F117" s="5">
-        <v>253</v>
+        <v>204</v>
       </c>
       <c r="G117" s="5" t="str">
         <f>CHAR(F117)</f>
-        <v>ý</v>
+        <v>Ì</v>
       </c>
       <c r="H117" s="5">
         <v>0</v>
       </c>
-      <c r="I117" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="L117" s="5">
-        <v>158</v>
+      <c r="L117" s="4">
+        <v>157</v>
       </c>
       <c r="M117" s="4" t="str">
         <f>"wepo "&amp;H117&amp;","&amp;C117&amp;" //"&amp;L117</f>
-        <v>wepo 0,766 //158</v>
+        <v>wepo 0,756 //157</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C118" s="4">
-        <v>770</v>
+        <v>262</v>
+      </c>
+      <c r="C118" s="5">
+        <v>766</v>
       </c>
       <c r="D118" s="4">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="E118" s="4" t="str">
         <f>DEC2HEX(F118)</f>
-        <v>4D</v>
+        <v>FD</v>
       </c>
       <c r="F118" s="5">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="G118" s="5" t="str">
         <f>CHAR(F118)</f>
-        <v>M</v>
+        <v>ý</v>
       </c>
       <c r="H118" s="5">
-        <v>1</v>
-      </c>
-      <c r="J118" s="5">
-        <v>774</v>
-      </c>
-      <c r="K118" s="5">
-        <v>775</v>
-      </c>
-      <c r="L118" s="4">
-        <v>159</v>
+        <v>0</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="L118" s="5">
+        <v>158</v>
       </c>
       <c r="M118" s="4" t="str">
         <f>"wepo "&amp;H118&amp;","&amp;C118&amp;" //"&amp;L118</f>
-        <v>wepo 1,770 //159</v>
+        <v>wepo 0,766 //158</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C119" s="5">
-        <v>776</v>
-      </c>
-      <c r="D119" s="5">
-        <v>785</v>
-      </c>
-      <c r="E119" s="6" t="str">
+        <v>170</v>
+      </c>
+      <c r="C119" s="4">
+        <v>770</v>
+      </c>
+      <c r="D119" s="4">
+        <v>773</v>
+      </c>
+      <c r="E119" s="4" t="str">
         <f>DEC2HEX(F119)</f>
-        <v>CD</v>
+        <v>4D</v>
       </c>
       <c r="F119" s="5">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="G119" s="5" t="str">
         <f>CHAR(F119)</f>
-        <v>Í</v>
+        <v>M</v>
       </c>
       <c r="H119" s="5">
-        <v>0</v>
-      </c>
-      <c r="L119" s="5">
-        <v>160</v>
+        <v>1</v>
+      </c>
+      <c r="J119" s="5">
+        <v>774</v>
+      </c>
+      <c r="K119" s="5">
+        <v>775</v>
+      </c>
+      <c r="L119" s="4">
+        <v>159</v>
       </c>
       <c r="M119" s="4" t="str">
         <f>"wepo "&amp;H119&amp;","&amp;C119&amp;" //"&amp;L119</f>
-        <v>wepo 0,776 //160</v>
+        <v>wepo 1,770 //159</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -6403,34 +6396,34 @@
         <v>175</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C120" s="5">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="D120" s="5">
-        <v>795</v>
-      </c>
-      <c r="E120" s="4" t="str">
+        <v>785</v>
+      </c>
+      <c r="E120" s="6" t="str">
         <f>DEC2HEX(F120)</f>
-        <v>F1</v>
+        <v>CD</v>
       </c>
       <c r="F120" s="5">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="G120" s="5" t="str">
         <f>CHAR(F120)</f>
-        <v>ñ</v>
+        <v>Í</v>
       </c>
       <c r="H120" s="5">
         <v>0</v>
       </c>
-      <c r="L120" s="4">
-        <v>161</v>
+      <c r="L120" s="5">
+        <v>160</v>
       </c>
       <c r="M120" s="4" t="str">
         <f>"wepo "&amp;H120&amp;","&amp;C120&amp;" //"&amp;L120</f>
-        <v>wepo 0,786 //161</v>
+        <v>wepo 0,776 //160</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -6438,34 +6431,34 @@
         <v>175</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="C121" s="4">
-        <v>796</v>
-      </c>
-      <c r="D121" s="4">
-        <v>799</v>
-      </c>
-      <c r="E121" s="5" t="str">
+        <v>191</v>
+      </c>
+      <c r="C121" s="5">
+        <v>786</v>
+      </c>
+      <c r="D121" s="5">
+        <v>795</v>
+      </c>
+      <c r="E121" s="4" t="str">
         <f>DEC2HEX(F121)</f>
-        <v>D2</v>
+        <v>F1</v>
       </c>
       <c r="F121" s="5">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="G121" s="5" t="str">
         <f>CHAR(F121)</f>
-        <v>Ò</v>
+        <v>ñ</v>
       </c>
       <c r="H121" s="5">
-        <v>5000</v>
-      </c>
-      <c r="L121" s="5">
-        <v>162</v>
+        <v>0</v>
+      </c>
+      <c r="L121" s="4">
+        <v>161</v>
       </c>
       <c r="M121" s="4" t="str">
         <f>"wepo "&amp;H121&amp;","&amp;C121&amp;" //"&amp;L121</f>
-        <v>wepo 5000,796 //162</v>
+        <v>wepo 0,786 //161</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -6473,34 +6466,34 @@
         <v>175</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C122" s="5">
-        <v>800</v>
-      </c>
-      <c r="D122" s="5">
-        <v>803</v>
+        <v>481</v>
+      </c>
+      <c r="C122" s="4">
+        <v>796</v>
+      </c>
+      <c r="D122" s="4">
+        <v>799</v>
       </c>
       <c r="E122" s="5" t="str">
         <f>DEC2HEX(F122)</f>
-        <v>D1</v>
+        <v>D2</v>
       </c>
       <c r="F122" s="5">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G122" s="5" t="str">
         <f>CHAR(F122)</f>
-        <v>Ñ</v>
+        <v>Ò</v>
       </c>
       <c r="H122" s="5">
-        <v>50</v>
-      </c>
-      <c r="L122" s="4">
-        <v>163</v>
+        <v>5000</v>
+      </c>
+      <c r="L122" s="5">
+        <v>162</v>
       </c>
       <c r="M122" s="4" t="str">
         <f>"wepo "&amp;H122&amp;","&amp;C122&amp;" //"&amp;L122</f>
-        <v>wepo 50,800 //163</v>
+        <v>wepo 5000,796 //162</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -6508,34 +6501,34 @@
         <v>175</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C123" s="5">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="D123" s="5">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="E123" s="5" t="str">
         <f>DEC2HEX(F123)</f>
-        <v>D3</v>
+        <v>D1</v>
       </c>
       <c r="F123" s="5">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G123" s="5" t="str">
         <f>CHAR(F123)</f>
-        <v>Ó</v>
+        <v>Ñ</v>
       </c>
       <c r="H123" s="5">
         <v>50</v>
       </c>
       <c r="L123" s="4">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M123" s="4" t="str">
         <f>"wepo "&amp;H123&amp;","&amp;C123&amp;" //"&amp;L123</f>
-        <v>wepo 50,808 //165</v>
+        <v>wepo 50,800 //163</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -6543,34 +6536,34 @@
         <v>175</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C124" s="5">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="D124" s="5">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="E124" s="5" t="str">
         <f>DEC2HEX(F124)</f>
-        <v>D4</v>
+        <v>D3</v>
       </c>
       <c r="F124" s="5">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G124" s="5" t="str">
         <f>CHAR(F124)</f>
-        <v>Ô</v>
+        <v>Ó</v>
       </c>
       <c r="H124" s="5">
-        <v>0</v>
-      </c>
-      <c r="L124" s="5">
-        <v>166</v>
+        <v>50</v>
+      </c>
+      <c r="L124" s="4">
+        <v>165</v>
       </c>
       <c r="M124" s="4" t="str">
         <f>"wepo "&amp;H124&amp;","&amp;C124&amp;" //"&amp;L124</f>
-        <v>wepo 0,812 //166</v>
+        <v>wepo 50,808 //165</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -6578,34 +6571,34 @@
         <v>175</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C125" s="5">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="D125" s="5">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="E125" s="5" t="str">
         <f>DEC2HEX(F125)</f>
-        <v>D5</v>
+        <v>D4</v>
       </c>
       <c r="F125" s="5">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G125" s="5" t="str">
         <f>CHAR(F125)</f>
-        <v>Õ</v>
+        <v>Ô</v>
       </c>
       <c r="H125" s="5">
         <v>0</v>
       </c>
-      <c r="L125" s="4">
-        <v>167</v>
+      <c r="L125" s="5">
+        <v>166</v>
       </c>
       <c r="M125" s="4" t="str">
         <f>"wepo "&amp;H125&amp;","&amp;C125&amp;" //"&amp;L125</f>
-        <v>wepo 0,816 //167</v>
+        <v>wepo 0,812 //166</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -6613,34 +6606,34 @@
         <v>175</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C126" s="5">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="D126" s="5">
-        <v>835</v>
-      </c>
-      <c r="E126" s="4" t="str">
+        <v>825</v>
+      </c>
+      <c r="E126" s="5" t="str">
         <f>DEC2HEX(F126)</f>
-        <v>F3</v>
+        <v>D5</v>
       </c>
       <c r="F126" s="5">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="G126" s="5" t="str">
         <f>CHAR(F126)</f>
-        <v>ó</v>
+        <v>Õ</v>
       </c>
       <c r="H126" s="5">
         <v>0</v>
       </c>
-      <c r="L126" s="5">
-        <v>168</v>
+      <c r="L126" s="4">
+        <v>167</v>
       </c>
       <c r="M126" s="4" t="str">
         <f>"wepo "&amp;H126&amp;","&amp;C126&amp;" //"&amp;L126</f>
-        <v>wepo 0,826 //168</v>
+        <v>wepo 0,816 //167</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -6648,75 +6641,75 @@
         <v>175</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C127" s="5">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="D127" s="5">
-        <v>845</v>
-      </c>
-      <c r="E127" s="5" t="str">
+        <v>835</v>
+      </c>
+      <c r="E127" s="4" t="str">
         <f>DEC2HEX(F127)</f>
-        <v>D6</v>
+        <v>F3</v>
       </c>
       <c r="F127" s="5">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="G127" s="5" t="str">
         <f>CHAR(F127)</f>
-        <v>Ö</v>
+        <v>ó</v>
       </c>
       <c r="H127" s="5">
         <v>0</v>
       </c>
-      <c r="J127" s="5">
-        <v>846</v>
-      </c>
-      <c r="K127" s="5">
-        <v>847</v>
-      </c>
-      <c r="L127" s="4">
-        <v>169</v>
+      <c r="L127" s="5">
+        <v>168</v>
       </c>
       <c r="M127" s="4" t="str">
         <f>"wepo "&amp;H127&amp;","&amp;C127&amp;" //"&amp;L127</f>
-        <v>wepo 0,836 //169</v>
+        <v>wepo 0,826 //168</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>434</v>
+        <v>175</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C128" s="4">
-        <v>848</v>
-      </c>
-      <c r="D128" s="4">
-        <v>851</v>
-      </c>
-      <c r="E128" s="4" t="str">
+        <v>197</v>
+      </c>
+      <c r="C128" s="5">
+        <v>836</v>
+      </c>
+      <c r="D128" s="5">
+        <v>845</v>
+      </c>
+      <c r="E128" s="5" t="str">
         <f>DEC2HEX(F128)</f>
-        <v>E0</v>
+        <v>D6</v>
       </c>
       <c r="F128" s="5">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="G128" s="5" t="str">
         <f>CHAR(F128)</f>
-        <v>à</v>
+        <v>Ö</v>
       </c>
       <c r="H128" s="5">
-        <v>38</v>
-      </c>
-      <c r="L128" s="5">
-        <v>170</v>
+        <v>0</v>
+      </c>
+      <c r="J128" s="5">
+        <v>846</v>
+      </c>
+      <c r="K128" s="5">
+        <v>847</v>
+      </c>
+      <c r="L128" s="4">
+        <v>169</v>
       </c>
       <c r="M128" s="4" t="str">
         <f>"wepo "&amp;H128&amp;","&amp;C128&amp;" //"&amp;L128</f>
-        <v>wepo 38,848 //170</v>
+        <v>wepo 0,836 //169</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -6724,34 +6717,34 @@
         <v>434</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C129" s="4">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="D129" s="4">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="E129" s="4" t="str">
         <f>DEC2HEX(F129)</f>
-        <v>E1</v>
+        <v>E0</v>
       </c>
       <c r="F129" s="5">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G129" s="5" t="str">
         <f>CHAR(F129)</f>
-        <v>á</v>
+        <v>à</v>
       </c>
       <c r="H129" s="5">
-        <v>39</v>
-      </c>
-      <c r="L129" s="4">
-        <v>171</v>
+        <v>38</v>
+      </c>
+      <c r="L129" s="5">
+        <v>170</v>
       </c>
       <c r="M129" s="4" t="str">
         <f>"wepo "&amp;H129&amp;","&amp;C129&amp;" //"&amp;L129</f>
-        <v>wepo 39,852 //171</v>
+        <v>wepo 38,848 //170</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -6759,34 +6752,34 @@
         <v>434</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C130" s="4">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="D130" s="4">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="E130" s="4" t="str">
         <f>DEC2HEX(F130)</f>
-        <v>DC</v>
+        <v>E1</v>
       </c>
       <c r="F130" s="5">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G130" s="5" t="str">
         <f>CHAR(F130)</f>
-        <v>Ü</v>
+        <v>á</v>
       </c>
       <c r="H130" s="5">
-        <v>34</v>
-      </c>
-      <c r="L130" s="5">
-        <v>172</v>
+        <v>39</v>
+      </c>
+      <c r="L130" s="4">
+        <v>171</v>
       </c>
       <c r="M130" s="4" t="str">
         <f>"wepo "&amp;H130&amp;","&amp;C130&amp;" //"&amp;L130</f>
-        <v>wepo 34,856 //172</v>
+        <v>wepo 39,852 //171</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -6794,34 +6787,34 @@
         <v>434</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C131" s="4">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="D131" s="4">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="E131" s="4" t="str">
         <f>DEC2HEX(F131)</f>
-        <v>DD</v>
+        <v>DC</v>
       </c>
       <c r="F131" s="5">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G131" s="5" t="str">
         <f>CHAR(F131)</f>
-        <v>Ý</v>
+        <v>Ü</v>
       </c>
       <c r="H131" s="5">
-        <v>35</v>
-      </c>
-      <c r="L131" s="4">
-        <v>173</v>
+        <v>34</v>
+      </c>
+      <c r="L131" s="5">
+        <v>172</v>
       </c>
       <c r="M131" s="4" t="str">
         <f>"wepo "&amp;H131&amp;","&amp;C131&amp;" //"&amp;L131</f>
-        <v>wepo 35,860 //173</v>
+        <v>wepo 34,856 //172</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -6829,34 +6822,34 @@
         <v>434</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C132" s="4">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="D132" s="4">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="E132" s="4" t="str">
         <f>DEC2HEX(F132)</f>
-        <v>DE</v>
+        <v>DD</v>
       </c>
       <c r="F132" s="5">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G132" s="5" t="str">
         <f>CHAR(F132)</f>
-        <v>Þ</v>
+        <v>Ý</v>
       </c>
       <c r="H132" s="5">
-        <v>36</v>
-      </c>
-      <c r="L132" s="5">
-        <v>174</v>
+        <v>35</v>
+      </c>
+      <c r="L132" s="4">
+        <v>173</v>
       </c>
       <c r="M132" s="4" t="str">
         <f>"wepo "&amp;H132&amp;","&amp;C132&amp;" //"&amp;L132</f>
-        <v>wepo 36,864 //174</v>
+        <v>wepo 35,860 //173</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -6864,83 +6857,83 @@
         <v>434</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C133" s="4">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="D133" s="4">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="E133" s="4" t="str">
         <f>DEC2HEX(F133)</f>
-        <v>DF</v>
+        <v>DE</v>
       </c>
       <c r="F133" s="5">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G133" s="5" t="str">
         <f>CHAR(F133)</f>
-        <v>ß</v>
+        <v>Þ</v>
       </c>
       <c r="H133" s="5">
-        <v>37</v>
-      </c>
-      <c r="L133" s="4">
-        <v>175</v>
+        <v>36</v>
+      </c>
+      <c r="L133" s="5">
+        <v>174</v>
       </c>
       <c r="M133" s="4" t="str">
         <f>"wepo "&amp;H133&amp;","&amp;C133&amp;" //"&amp;L133</f>
-        <v>wepo 37,868 //175</v>
+        <v>wepo 36,864 //174</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>16</v>
+        <v>434</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>253</v>
+        <v>73</v>
       </c>
       <c r="C134" s="4">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="D134" s="4">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="E134" s="4" t="str">
         <f>DEC2HEX(F134)</f>
-        <v>3A</v>
+        <v>DF</v>
       </c>
       <c r="F134" s="5">
-        <v>58</v>
+        <v>223</v>
       </c>
       <c r="G134" s="5" t="str">
         <f>CHAR(F134)</f>
-        <v>:</v>
+        <v>ß</v>
       </c>
       <c r="H134" s="5">
-        <v>5000</v>
-      </c>
-      <c r="L134" s="5">
-        <v>176</v>
+        <v>37</v>
+      </c>
+      <c r="L134" s="4">
+        <v>175</v>
       </c>
       <c r="M134" s="4" t="str">
         <f>"wepo "&amp;H134&amp;","&amp;C134&amp;" //"&amp;L134</f>
-        <v>wepo 5000,872 //176</v>
+        <v>wepo 37,868 //175</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>478</v>
+        <v>253</v>
       </c>
       <c r="C135" s="4">
-        <v>884</v>
+        <v>872</v>
       </c>
       <c r="D135" s="4">
-        <v>887</v>
+        <v>875</v>
       </c>
       <c r="E135" s="4" t="str">
         <f>DEC2HEX(F135)</f>
@@ -6956,28 +6949,28 @@
       <c r="H135" s="5">
         <v>5000</v>
       </c>
-      <c r="L135" s="4">
-        <v>179</v>
+      <c r="L135" s="5">
+        <v>176</v>
       </c>
       <c r="M135" s="4" t="str">
         <f>"wepo "&amp;H135&amp;","&amp;C135&amp;" //"&amp;L135</f>
-        <v>wepo 5000,884 //179</v>
+        <v>wepo 5000,872 //176</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C136" s="7">
-        <v>896</v>
-      </c>
-      <c r="D136" s="5">
-        <v>899</v>
-      </c>
-      <c r="E136" s="5" t="str">
+        <v>478</v>
+      </c>
+      <c r="C136" s="4">
+        <v>884</v>
+      </c>
+      <c r="D136" s="4">
+        <v>887</v>
+      </c>
+      <c r="E136" s="4" t="str">
         <f>DEC2HEX(F136)</f>
         <v>3A</v>
       </c>
@@ -6991,58 +6984,61 @@
       <c r="H136" s="5">
         <v>5000</v>
       </c>
-      <c r="L136" s="5">
-        <v>182</v>
+      <c r="L136" s="4">
+        <v>179</v>
       </c>
       <c r="M136" s="4" t="str">
         <f>"wepo "&amp;H136&amp;","&amp;C136&amp;" //"&amp;L136</f>
-        <v>wepo 5000,896 //182</v>
+        <v>wepo 5000,884 //179</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C137" s="4">
-        <v>900</v>
-      </c>
-      <c r="D137" s="4">
-        <v>903</v>
-      </c>
-      <c r="E137" s="4" t="str">
+        <v>198</v>
+      </c>
+      <c r="C137" s="7">
+        <v>896</v>
+      </c>
+      <c r="D137" s="5">
+        <v>899</v>
+      </c>
+      <c r="E137" s="5" t="str">
         <f>DEC2HEX(F137)</f>
         <v>3A</v>
       </c>
       <c r="F137" s="5">
         <v>58</v>
       </c>
-      <c r="G137" s="5"/>
+      <c r="G137" s="5" t="str">
+        <f>CHAR(F137)</f>
+        <v>:</v>
+      </c>
       <c r="H137" s="5">
         <v>5000</v>
       </c>
-      <c r="L137" s="4">
-        <v>183</v>
+      <c r="L137" s="5">
+        <v>182</v>
       </c>
       <c r="M137" s="4" t="str">
         <f>"wepo "&amp;H137&amp;","&amp;C137&amp;" //"&amp;L137</f>
-        <v>wepo 5000,900 //183</v>
+        <v>wepo 5000,896 //182</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>479</v>
+        <v>260</v>
       </c>
       <c r="C138" s="4">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="D138" s="4">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="E138" s="4" t="str">
         <f>DEC2HEX(F138)</f>
@@ -7051,54 +7047,51 @@
       <c r="F138" s="5">
         <v>58</v>
       </c>
-      <c r="G138" s="5" t="str">
-        <f>CHAR(F138)</f>
-        <v>:</v>
-      </c>
+      <c r="G138" s="5"/>
       <c r="H138" s="5">
         <v>5000</v>
       </c>
-      <c r="L138" s="5">
-        <v>184</v>
+      <c r="L138" s="4">
+        <v>183</v>
       </c>
       <c r="M138" s="4" t="str">
         <f>"wepo "&amp;H138&amp;","&amp;C138&amp;" //"&amp;L138</f>
-        <v>wepo 5000,904 //184</v>
+        <v>wepo 5000,900 //183</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C139" s="4">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="D139" s="4">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="E139" s="4" t="str">
         <f>DEC2HEX(F139)</f>
-        <v>3B</v>
+        <v>3A</v>
       </c>
       <c r="F139" s="5">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G139" s="5" t="str">
         <f>CHAR(F139)</f>
-        <v>;</v>
+        <v>:</v>
       </c>
       <c r="H139" s="5">
         <v>5000</v>
       </c>
-      <c r="L139" s="4">
-        <v>185</v>
+      <c r="L139" s="5">
+        <v>184</v>
       </c>
       <c r="M139" s="4" t="str">
         <f>"wepo "&amp;H139&amp;","&amp;C139&amp;" //"&amp;L139</f>
-        <v>wepo 5000,912 //185</v>
+        <v>wepo 5000,904 //184</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -7106,13 +7099,13 @@
         <v>16</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>151</v>
+        <v>482</v>
       </c>
       <c r="C140" s="4">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="D140" s="4">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="E140" s="4" t="str">
         <f>DEC2HEX(F140)</f>
@@ -7128,12 +7121,12 @@
       <c r="H140" s="5">
         <v>5000</v>
       </c>
-      <c r="L140" s="5">
-        <v>186</v>
+      <c r="L140" s="4">
+        <v>185</v>
       </c>
       <c r="M140" s="4" t="str">
         <f>"wepo "&amp;H140&amp;","&amp;C140&amp;" //"&amp;L140</f>
-        <v>wepo 5000,916 //186</v>
+        <v>wepo 5000,912 //185</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -7141,13 +7134,13 @@
         <v>16</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C141" s="4">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="D141" s="4">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="E141" s="4" t="str">
         <f>DEC2HEX(F141)</f>
@@ -7163,26 +7156,26 @@
       <c r="H141" s="5">
         <v>5000</v>
       </c>
-      <c r="L141" s="4">
-        <v>187</v>
+      <c r="L141" s="5">
+        <v>186</v>
       </c>
       <c r="M141" s="4" t="str">
         <f>"wepo "&amp;H141&amp;","&amp;C141&amp;" //"&amp;L141</f>
-        <v>wepo 5000,920 //187</v>
+        <v>wepo 5000,916 //186</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="C142" s="4">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="D142" s="4">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="E142" s="4" t="str">
         <f>DEC2HEX(F142)</f>
@@ -7198,28 +7191,28 @@
       <c r="H142" s="5">
         <v>5000</v>
       </c>
-      <c r="L142" s="5">
-        <v>188</v>
+      <c r="L142" s="4">
+        <v>187</v>
       </c>
       <c r="M142" s="4" t="str">
         <f>"wepo "&amp;H142&amp;","&amp;C142&amp;" //"&amp;L142</f>
-        <v>wepo 5000,924 //188</v>
+        <v>wepo 5000,920 //187</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C143" s="5">
-        <v>932</v>
-      </c>
-      <c r="D143" s="5">
-        <v>935</v>
-      </c>
-      <c r="E143" s="5" t="str">
+        <v>76</v>
+      </c>
+      <c r="C143" s="4">
+        <v>924</v>
+      </c>
+      <c r="D143" s="4">
+        <v>927</v>
+      </c>
+      <c r="E143" s="4" t="str">
         <f>DEC2HEX(F143)</f>
         <v>3B</v>
       </c>
@@ -7234,11 +7227,11 @@
         <v>5000</v>
       </c>
       <c r="L143" s="5">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M143" s="4" t="str">
         <f>"wepo "&amp;H143&amp;","&amp;C143&amp;" //"&amp;L143</f>
-        <v>wepo 5000,932 //190</v>
+        <v>wepo 5000,924 //188</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -7246,13 +7239,13 @@
         <v>175</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C144" s="5">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="D144" s="5">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="E144" s="5" t="str">
         <f>DEC2HEX(F144)</f>
@@ -7268,58 +7261,61 @@
       <c r="H144" s="5">
         <v>5000</v>
       </c>
-      <c r="L144" s="4">
-        <v>191</v>
+      <c r="L144" s="5">
+        <v>190</v>
       </c>
       <c r="M144" s="4" t="str">
         <f>"wepo "&amp;H144&amp;","&amp;C144&amp;" //"&amp;L144</f>
-        <v>wepo 5000,936 //191</v>
+        <v>wepo 5000,932 //190</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C145" s="4">
-        <v>940</v>
-      </c>
-      <c r="D145" s="4">
-        <v>943</v>
-      </c>
-      <c r="E145" s="4" t="str">
+        <v>200</v>
+      </c>
+      <c r="C145" s="5">
+        <v>936</v>
+      </c>
+      <c r="D145" s="5">
+        <v>939</v>
+      </c>
+      <c r="E145" s="5" t="str">
         <f>DEC2HEX(F145)</f>
         <v>3B</v>
       </c>
       <c r="F145" s="5">
         <v>59</v>
       </c>
-      <c r="G145" s="5"/>
+      <c r="G145" s="5" t="str">
+        <f>CHAR(F145)</f>
+        <v>;</v>
+      </c>
       <c r="H145" s="5">
         <v>5000</v>
       </c>
-      <c r="L145" s="5">
-        <v>192</v>
+      <c r="L145" s="4">
+        <v>191</v>
       </c>
       <c r="M145" s="4" t="str">
         <f>"wepo "&amp;H145&amp;","&amp;C145&amp;" //"&amp;L145</f>
-        <v>wepo 5000,940 //192</v>
+        <v>wepo 5000,936 //191</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>480</v>
+        <v>261</v>
       </c>
       <c r="C146" s="4">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="D146" s="4">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="E146" s="4" t="str">
         <f>DEC2HEX(F146)</f>
@@ -7328,106 +7324,103 @@
       <c r="F146" s="5">
         <v>59</v>
       </c>
-      <c r="G146" s="5" t="str">
-        <f>CHAR(F146)</f>
-        <v>;</v>
-      </c>
+      <c r="G146" s="5"/>
       <c r="H146" s="5">
         <v>5000</v>
       </c>
-      <c r="L146" s="4">
-        <v>193</v>
+      <c r="L146" s="5">
+        <v>192</v>
       </c>
       <c r="M146" s="4" t="str">
         <f>"wepo "&amp;H146&amp;","&amp;C146&amp;" //"&amp;L146</f>
-        <v>wepo 5000,944 //193</v>
+        <v>wepo 5000,940 //192</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>140</v>
+        <v>480</v>
       </c>
       <c r="C147" s="4">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="D147" s="4">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="E147" s="4" t="str">
         <f>DEC2HEX(F147)</f>
-        <v>46</v>
+        <v>3B</v>
       </c>
       <c r="F147" s="5">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G147" s="5" t="str">
         <f>CHAR(F147)</f>
-        <v>F</v>
+        <v>;</v>
       </c>
       <c r="H147" s="5">
-        <v>0</v>
-      </c>
-      <c r="I147" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="L147" s="5">
-        <v>194</v>
+        <v>5000</v>
+      </c>
+      <c r="L147" s="4">
+        <v>193</v>
       </c>
       <c r="M147" s="4" t="str">
         <f>"wepo "&amp;H147&amp;","&amp;C147&amp;" //"&amp;L147</f>
-        <v>wepo 0,948 //194</v>
+        <v>wepo 5000,944 //193</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>254</v>
+        <v>140</v>
       </c>
       <c r="C148" s="4">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="D148" s="4">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="E148" s="4" t="str">
         <f>DEC2HEX(F148)</f>
-        <v>CA</v>
+        <v>46</v>
       </c>
       <c r="F148" s="5">
-        <v>202</v>
+        <v>70</v>
       </c>
       <c r="G148" s="5" t="str">
         <f>CHAR(F148)</f>
-        <v>Ê</v>
+        <v>F</v>
       </c>
       <c r="H148" s="5">
-        <v>5000</v>
-      </c>
-      <c r="L148" s="4">
-        <v>195</v>
+        <v>0</v>
+      </c>
+      <c r="I148" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="L148" s="5">
+        <v>194</v>
       </c>
       <c r="M148" s="4" t="str">
         <f>"wepo "&amp;H148&amp;","&amp;C148&amp;" //"&amp;L148</f>
-        <v>wepo 5000,952 //195</v>
+        <v>wepo 0,948 //194</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="C149" s="4">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="D149" s="4">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="E149" s="4" t="str">
         <f>DEC2HEX(F149)</f>
@@ -7443,28 +7436,28 @@
       <c r="H149" s="5">
         <v>5000</v>
       </c>
-      <c r="L149" s="5">
-        <v>196</v>
+      <c r="L149" s="4">
+        <v>195</v>
       </c>
       <c r="M149" s="4" t="str">
         <f>"wepo "&amp;H149&amp;","&amp;C149&amp;" //"&amp;L149</f>
-        <v>wepo 5000,956 //196</v>
+        <v>wepo 5000,952 //195</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C150" s="5">
-        <v>960</v>
-      </c>
-      <c r="D150" s="5">
-        <v>963</v>
-      </c>
-      <c r="E150" s="5" t="str">
+        <v>77</v>
+      </c>
+      <c r="C150" s="4">
+        <v>956</v>
+      </c>
+      <c r="D150" s="4">
+        <v>959</v>
+      </c>
+      <c r="E150" s="4" t="str">
         <f>DEC2HEX(F150)</f>
         <v>CA</v>
       </c>
@@ -7478,12 +7471,12 @@
       <c r="H150" s="5">
         <v>5000</v>
       </c>
-      <c r="L150" s="4">
-        <v>197</v>
+      <c r="L150" s="5">
+        <v>196</v>
       </c>
       <c r="M150" s="4" t="str">
         <f>"wepo "&amp;H150&amp;","&amp;C150&amp;" //"&amp;L150</f>
-        <v>wepo 5000,960 //197</v>
+        <v>wepo 5000,956 //196</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -7491,13 +7484,13 @@
         <v>175</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C151" s="5">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="D151" s="5">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="E151" s="5" t="str">
         <f>DEC2HEX(F151)</f>
@@ -7513,28 +7506,28 @@
       <c r="H151" s="5">
         <v>5000</v>
       </c>
-      <c r="L151" s="5">
-        <v>198</v>
+      <c r="L151" s="4">
+        <v>197</v>
       </c>
       <c r="M151" s="4" t="str">
         <f>"wepo "&amp;H151&amp;","&amp;C151&amp;" //"&amp;L151</f>
-        <v>wepo 5000,964 //198</v>
+        <v>wepo 5000,960 //197</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>264</v>
+        <v>175</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C152" s="4">
-        <v>968</v>
-      </c>
-      <c r="D152" s="4">
-        <v>971</v>
-      </c>
-      <c r="E152" s="4" t="str">
+        <v>202</v>
+      </c>
+      <c r="C152" s="5">
+        <v>964</v>
+      </c>
+      <c r="D152" s="5">
+        <v>967</v>
+      </c>
+      <c r="E152" s="5" t="str">
         <f>DEC2HEX(F152)</f>
         <v>CA</v>
       </c>
@@ -7548,61 +7541,61 @@
       <c r="H152" s="5">
         <v>5000</v>
       </c>
-      <c r="L152" s="4">
-        <v>199</v>
+      <c r="L152" s="5">
+        <v>198</v>
       </c>
       <c r="M152" s="4" t="str">
         <f>"wepo "&amp;H152&amp;","&amp;C152&amp;" //"&amp;L152</f>
-        <v>wepo 5000,968 //199</v>
+        <v>wepo 5000,964 //198</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>16</v>
+        <v>264</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>259</v>
+        <v>78</v>
       </c>
       <c r="C153" s="4">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="D153" s="4">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="E153" s="4" t="str">
         <f>DEC2HEX(F153)</f>
-        <v>7C</v>
+        <v>CA</v>
       </c>
       <c r="F153" s="5">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="G153" s="5" t="str">
         <f>CHAR(F153)</f>
-        <v>|</v>
+        <v>Ê</v>
       </c>
       <c r="H153" s="5">
         <v>5000</v>
       </c>
-      <c r="L153" s="5">
-        <v>200</v>
+      <c r="L153" s="4">
+        <v>199</v>
       </c>
       <c r="M153" s="4" t="str">
         <f>"wepo "&amp;H153&amp;","&amp;C153&amp;" //"&amp;L153</f>
-        <v>wepo 5000,972 //200</v>
+        <v>wepo 5000,968 //199</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="C154" s="4">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="D154" s="4">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="E154" s="4" t="str">
         <f>DEC2HEX(F154)</f>
@@ -7618,26 +7611,26 @@
       <c r="H154" s="5">
         <v>5000</v>
       </c>
-      <c r="L154" s="4">
-        <v>201</v>
+      <c r="L154" s="5">
+        <v>200</v>
       </c>
       <c r="M154" s="4" t="str">
         <f>"wepo "&amp;H154&amp;","&amp;C154&amp;" //"&amp;L154</f>
-        <v>wepo 5000,976 //201</v>
+        <v>wepo 5000,972 //200</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>263</v>
+        <v>79</v>
       </c>
       <c r="C155" s="4">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="D155" s="4">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="E155" s="4" t="str">
         <f>DEC2HEX(F155)</f>
@@ -7653,131 +7646,131 @@
       <c r="H155" s="5">
         <v>5000</v>
       </c>
-      <c r="L155" s="5">
-        <v>202</v>
+      <c r="L155" s="4">
+        <v>201</v>
       </c>
       <c r="M155" s="4" t="str">
         <f>"wepo "&amp;H155&amp;","&amp;C155&amp;" //"&amp;L155</f>
-        <v>wepo 5000,980 //202</v>
+        <v>wepo 5000,976 //201</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>171</v>
+        <v>263</v>
       </c>
       <c r="C156" s="4">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="D156" s="4">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="E156" s="4" t="str">
         <f>DEC2HEX(F156)</f>
-        <v>2E</v>
+        <v>7C</v>
       </c>
       <c r="F156" s="5">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="G156" s="5" t="str">
         <f>CHAR(F156)</f>
-        <v>.</v>
+        <v>|</v>
       </c>
       <c r="H156" s="5">
-        <v>1</v>
-      </c>
-      <c r="L156" s="4">
-        <v>203</v>
+        <v>5000</v>
+      </c>
+      <c r="L156" s="5">
+        <v>202</v>
       </c>
       <c r="M156" s="4" t="str">
         <f>"wepo "&amp;H156&amp;","&amp;C156&amp;" //"&amp;L156</f>
-        <v>wepo 1,984 //203</v>
+        <v>wepo 5000,980 //202</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>264</v>
+        <v>121</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="C157" s="4">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="D157" s="4">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="E157" s="4" t="str">
         <f>DEC2HEX(F157)</f>
-        <v>7C</v>
+        <v>2E</v>
       </c>
       <c r="F157" s="5">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="G157" s="5" t="str">
         <f>CHAR(F157)</f>
-        <v>|</v>
+        <v>.</v>
       </c>
       <c r="H157" s="5">
-        <v>5000</v>
-      </c>
-      <c r="L157" s="5">
-        <v>204</v>
+        <v>1</v>
+      </c>
+      <c r="L157" s="4">
+        <v>203</v>
       </c>
       <c r="M157" s="4" t="str">
         <f>"wepo "&amp;H157&amp;","&amp;C157&amp;" //"&amp;L157</f>
-        <v>wepo 5000,988 //204</v>
+        <v>wepo 1,984 //203</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>16</v>
+        <v>264</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="C158" s="4">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="D158" s="4">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="E158" s="4" t="str">
         <f>DEC2HEX(F158)</f>
-        <v>B9</v>
+        <v>7C</v>
       </c>
       <c r="F158" s="5">
-        <v>185</v>
+        <v>124</v>
       </c>
       <c r="G158" s="5" t="str">
         <f>CHAR(F158)</f>
-        <v>¹</v>
+        <v>|</v>
       </c>
       <c r="H158" s="5">
         <v>5000</v>
       </c>
-      <c r="L158" s="4">
-        <v>205</v>
+      <c r="L158" s="5">
+        <v>204</v>
       </c>
       <c r="M158" s="4" t="str">
         <f>"wepo "&amp;H158&amp;","&amp;C158&amp;" //"&amp;L158</f>
-        <v>wepo 5000,992 //205</v>
+        <v>wepo 5000,988 //204</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>81</v>
+        <v>255</v>
       </c>
       <c r="C159" s="4">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="D159" s="4">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="E159" s="4" t="str">
         <f>DEC2HEX(F159)</f>
@@ -7793,26 +7786,26 @@
       <c r="H159" s="5">
         <v>5000</v>
       </c>
-      <c r="L159" s="5">
-        <v>206</v>
+      <c r="L159" s="4">
+        <v>205</v>
       </c>
       <c r="M159" s="4" t="str">
         <f>"wepo "&amp;H159&amp;","&amp;C159&amp;" //"&amp;L159</f>
-        <v>wepo 5000,996 //206</v>
+        <v>wepo 5000,992 //205</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>264</v>
+        <v>120</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C160" s="4">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="D160" s="4">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="E160" s="4" t="str">
         <f>DEC2HEX(F160)</f>
@@ -7828,61 +7821,61 @@
       <c r="H160" s="5">
         <v>5000</v>
       </c>
-      <c r="L160" s="4">
-        <v>207</v>
+      <c r="L160" s="5">
+        <v>206</v>
       </c>
       <c r="M160" s="4" t="str">
         <f>"wepo "&amp;H160&amp;","&amp;C160&amp;" //"&amp;L160</f>
-        <v>wepo 5000,1000 //207</v>
+        <v>wepo 5000,996 //206</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>16</v>
+        <v>264</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>258</v>
+        <v>82</v>
       </c>
       <c r="C161" s="4">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="D161" s="4">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="E161" s="4" t="str">
         <f>DEC2HEX(F161)</f>
-        <v>BA</v>
+        <v>B9</v>
       </c>
       <c r="F161" s="5">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G161" s="5" t="str">
         <f>CHAR(F161)</f>
-        <v>º</v>
+        <v>¹</v>
       </c>
       <c r="H161" s="5">
         <v>5000</v>
       </c>
-      <c r="L161" s="5">
-        <v>208</v>
+      <c r="L161" s="4">
+        <v>207</v>
       </c>
       <c r="M161" s="4" t="str">
         <f>"wepo "&amp;H161&amp;","&amp;C161&amp;" //"&amp;L161</f>
-        <v>wepo 5000,1004 //208</v>
+        <v>wepo 5000,1000 //207</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>83</v>
+        <v>258</v>
       </c>
       <c r="C162" s="4">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="D162" s="4">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="E162" s="4" t="str">
         <f>DEC2HEX(F162)</f>
@@ -7898,26 +7891,26 @@
       <c r="H162" s="5">
         <v>5000</v>
       </c>
-      <c r="L162" s="4">
-        <v>209</v>
+      <c r="L162" s="5">
+        <v>208</v>
       </c>
       <c r="M162" s="4" t="str">
         <f>"wepo "&amp;H162&amp;","&amp;C162&amp;" //"&amp;L162</f>
-        <v>wepo 5000,1008 //209</v>
+        <v>wepo 5000,1004 //208</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>264</v>
+        <v>120</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C163" s="4">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="D163" s="4">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="E163" s="4" t="str">
         <f>DEC2HEX(F163)</f>
@@ -7933,47 +7926,47 @@
       <c r="H163" s="5">
         <v>5000</v>
       </c>
-      <c r="L163" s="5">
-        <v>210</v>
+      <c r="L163" s="4">
+        <v>209</v>
       </c>
       <c r="M163" s="4" t="str">
         <f>"wepo "&amp;H163&amp;","&amp;C163&amp;" //"&amp;L163</f>
-        <v>wepo 5000,1012 //210</v>
+        <v>wepo 5000,1008 //209</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>16</v>
+        <v>264</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>256</v>
+        <v>84</v>
       </c>
       <c r="C164" s="4">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="D164" s="4">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="E164" s="4" t="str">
         <f>DEC2HEX(F164)</f>
-        <v>75</v>
+        <v>BA</v>
       </c>
       <c r="F164" s="5">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="G164" s="5" t="str">
         <f>CHAR(F164)</f>
-        <v>u</v>
+        <v>º</v>
       </c>
       <c r="H164" s="5">
         <v>5000</v>
       </c>
-      <c r="L164" s="4">
-        <v>211</v>
+      <c r="L164" s="5">
+        <v>210</v>
       </c>
       <c r="M164" s="4" t="str">
         <f>"wepo "&amp;H164&amp;","&amp;C164&amp;" //"&amp;L164</f>
-        <v>wepo 5000,1016 //211</v>
+        <v>wepo 5000,1012 //210</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -7981,1167 +7974,1290 @@
         <v>16</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C165" s="4">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="D165" s="4">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="E165" s="4" t="str">
         <f>DEC2HEX(F165)</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F165" s="5">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G165" s="5" t="str">
         <f>CHAR(F165)</f>
-        <v>t</v>
+        <v>u</v>
       </c>
       <c r="H165" s="5">
         <v>5000</v>
       </c>
-      <c r="L165" s="5">
-        <v>212</v>
+      <c r="L165" s="4">
+        <v>211</v>
       </c>
       <c r="M165" s="4" t="str">
         <f>"wepo "&amp;H165&amp;","&amp;C165&amp;" //"&amp;L165</f>
-        <v>wepo 5000,1020 //212</v>
+        <v>wepo 5000,1016 //211</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C166" s="4">
+        <v>1020</v>
+      </c>
+      <c r="D166" s="4">
+        <v>1023</v>
+      </c>
       <c r="E166" s="4" t="str">
         <f>DEC2HEX(F166)</f>
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="F166" s="5">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="G166" s="5" t="str">
         <f>CHAR(F166)</f>
-        <v>!</v>
-      </c>
-      <c r="H166" s="5"/>
-      <c r="I166" s="4" t="s">
-        <v>166</v>
+        <v>t</v>
+      </c>
+      <c r="H166" s="5">
+        <v>5000</v>
+      </c>
+      <c r="L166" s="5">
+        <v>212</v>
+      </c>
+      <c r="M166" s="4" t="str">
+        <f>"wepo "&amp;H166&amp;","&amp;C166&amp;" //"&amp;L166</f>
+        <v>wepo 5000,1020 //212</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="E167" s="4" t="str">
         <f>DEC2HEX(F167)</f>
-        <v>22</v>
+        <v>2D</v>
       </c>
       <c r="F167" s="5">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G167" s="5" t="str">
         <f>CHAR(F167)</f>
-        <v>"</v>
+        <v>-</v>
       </c>
       <c r="H167" s="5"/>
-      <c r="I167" s="4" t="s">
-        <v>166</v>
+      <c r="J167" s="5">
+        <v>908</v>
+      </c>
+      <c r="K167" s="5">
+        <v>911</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>205</v>
+      </c>
       <c r="E168" s="4" t="str">
         <f>DEC2HEX(F168)</f>
-        <v>22</v>
+        <v>CE</v>
       </c>
       <c r="F168" s="5">
-        <v>34</v>
+        <v>206</v>
       </c>
       <c r="G168" s="5" t="str">
         <f>CHAR(F168)</f>
-        <v>"</v>
-      </c>
+        <v>Î</v>
+      </c>
+      <c r="H168" s="5"/>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="E169" s="4" t="str">
         <f>DEC2HEX(F169)</f>
-        <v>23</v>
+        <v>D7</v>
       </c>
       <c r="F169" s="5">
-        <v>35</v>
+        <v>215</v>
       </c>
       <c r="G169" s="5" t="str">
         <f>CHAR(F169)</f>
-        <v>#</v>
+        <v>×</v>
       </c>
       <c r="H169" s="5"/>
-      <c r="I169" s="4" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="E170" s="4" t="str">
         <f>DEC2HEX(F170)</f>
-        <v>24</v>
+        <v>EC</v>
       </c>
       <c r="F170" s="5">
-        <v>36</v>
+        <v>236</v>
       </c>
       <c r="G170" s="5" t="str">
         <f>CHAR(F170)</f>
-        <v>$</v>
+        <v>ì</v>
       </c>
       <c r="H170" s="5"/>
-      <c r="I170" s="4" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A171" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>213</v>
+      </c>
       <c r="E171" s="4" t="str">
         <f>DEC2HEX(F171)</f>
-        <v>25</v>
+        <v>7E</v>
       </c>
       <c r="F171" s="5">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="G171" s="5" t="str">
         <f>CHAR(F171)</f>
-        <v>%</v>
+        <v>~</v>
       </c>
       <c r="H171" s="5"/>
-      <c r="I171" s="4" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="E172" s="4" t="str">
         <f>DEC2HEX(F172)</f>
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="F172" s="5">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="G172" s="5" t="str">
         <f>CHAR(F172)</f>
-        <v>&amp;</v>
+        <v>i</v>
       </c>
       <c r="H172" s="5"/>
-      <c r="I172" s="4" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="E173" s="4" t="str">
         <f>DEC2HEX(F173)</f>
-        <v>27</v>
+        <v>C9</v>
       </c>
       <c r="F173" s="5">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c r="G173" s="5" t="str">
         <f>CHAR(F173)</f>
-        <v>'</v>
+        <v>É</v>
       </c>
       <c r="H173" s="5"/>
-      <c r="I173" s="4" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A174" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="E174" s="4" t="str">
         <f>DEC2HEX(F174)</f>
-        <v>28</v>
+        <v>E7</v>
       </c>
       <c r="F174" s="5">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="G174" s="5" t="str">
         <f>CHAR(F174)</f>
-        <v>(</v>
+        <v>ç</v>
       </c>
       <c r="H174" s="5"/>
-      <c r="I174" s="4" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="E175" s="4" t="str">
         <f>DEC2HEX(F175)</f>
-        <v>29</v>
+        <v>F7</v>
       </c>
       <c r="F175" s="5">
-        <v>41</v>
+        <v>247</v>
       </c>
       <c r="G175" s="5" t="str">
         <f>CHAR(F175)</f>
-        <v>)</v>
+        <v>÷</v>
       </c>
       <c r="H175" s="5"/>
-      <c r="I175" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="J175" s="4">
-        <v>456</v>
-      </c>
-      <c r="K175" s="4">
-        <v>459</v>
-      </c>
-      <c r="L175" s="4"/>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="E176" s="4" t="str">
         <f>DEC2HEX(F176)</f>
-        <v>2A</v>
+        <v>3D</v>
       </c>
       <c r="F176" s="5">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="G176" s="5" t="str">
         <f>CHAR(F176)</f>
-        <v>*</v>
+        <v>=</v>
       </c>
       <c r="H176" s="5"/>
-      <c r="I176" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="J176" s="4">
-        <v>596</v>
-      </c>
-      <c r="K176" s="4">
-        <v>599</v>
-      </c>
-      <c r="L176" s="4"/>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>204</v>
+        <v>2</v>
       </c>
       <c r="E177" s="4" t="str">
         <f>DEC2HEX(F177)</f>
-        <v>2D</v>
+        <v>51</v>
       </c>
       <c r="F177" s="5">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="G177" s="5" t="str">
         <f>CHAR(F177)</f>
-        <v>-</v>
+        <v>Q</v>
       </c>
       <c r="H177" s="5"/>
-      <c r="J177" s="5">
-        <v>908</v>
-      </c>
-      <c r="K177" s="5">
-        <v>911</v>
-      </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E178" s="1" t="str">
+      <c r="A178" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E178" s="4" t="str">
         <f>DEC2HEX(F178)</f>
-        <v>2F</v>
-      </c>
-      <c r="F178" s="2">
-        <v>47</v>
-      </c>
-      <c r="G178" s="2" t="str">
+        <v>52</v>
+      </c>
+      <c r="F178" s="5">
+        <v>82</v>
+      </c>
+      <c r="G178" s="5" t="str">
         <f>CHAR(F178)</f>
-        <v>/</v>
-      </c>
-      <c r="H178" s="2"/>
-      <c r="I178" s="1" t="s">
-        <v>167</v>
-      </c>
+        <v>R</v>
+      </c>
+      <c r="H178" s="5"/>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E179" s="1" t="str">
+      <c r="A179" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E179" s="4" t="str">
         <f>DEC2HEX(F179)</f>
-        <v>30</v>
-      </c>
-      <c r="F179" s="2">
-        <v>48</v>
-      </c>
-      <c r="G179" s="2" t="str">
+        <v>A3</v>
+      </c>
+      <c r="F179" s="5">
+        <v>163</v>
+      </c>
+      <c r="G179" s="5" t="str">
         <f>CHAR(F179)</f>
-        <v>0</v>
-      </c>
-      <c r="H179" s="2"/>
-      <c r="I179" s="1" t="s">
-        <v>167</v>
-      </c>
+        <v>£</v>
+      </c>
+      <c r="H179" s="5"/>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E180" s="1" t="str">
+      <c r="A180" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E180" s="4" t="str">
         <f>DEC2HEX(F180)</f>
-        <v>31</v>
-      </c>
-      <c r="F180" s="2">
-        <v>49</v>
-      </c>
-      <c r="G180" s="2" t="str">
+        <v>3A</v>
+      </c>
+      <c r="F180" s="5">
+        <v>58</v>
+      </c>
+      <c r="G180" s="5" t="str">
         <f>CHAR(F180)</f>
-        <v>1</v>
-      </c>
-      <c r="H180" s="2"/>
-      <c r="I180" s="1" t="s">
-        <v>167</v>
+        <v>:</v>
+      </c>
+      <c r="H180" s="5">
+        <v>5000</v>
+      </c>
+      <c r="J180" s="4">
+        <v>876</v>
+      </c>
+      <c r="K180" s="4">
+        <v>879</v>
+      </c>
+      <c r="L180" s="4">
+        <v>177</v>
+      </c>
+      <c r="M180" s="4" t="str">
+        <f>"wepo "&amp;H180&amp;","&amp;J180&amp;" //"&amp;L180</f>
+        <v>wepo 5000,876 //177</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E181" s="1" t="str">
+      <c r="A181" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E181" s="4" t="str">
         <f>DEC2HEX(F181)</f>
-        <v>32</v>
-      </c>
-      <c r="F181" s="2">
+        <v>3A</v>
+      </c>
+      <c r="F181" s="5">
+        <v>58</v>
+      </c>
+      <c r="G181" s="5" t="str">
+        <f>CHAR(F181)</f>
+        <v>:</v>
+      </c>
+      <c r="H181" s="5">
+        <v>5000</v>
+      </c>
+      <c r="J181" s="4">
+        <v>880</v>
+      </c>
+      <c r="K181" s="4">
+        <v>883</v>
+      </c>
+      <c r="L181" s="5">
+        <v>178</v>
+      </c>
+      <c r="M181" s="4" t="str">
+        <f>"wepo "&amp;H181&amp;","&amp;J181&amp;" //"&amp;L181</f>
+        <v>wepo 5000,880 //178</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A182" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E182" s="4" t="str">
+        <f>DEC2HEX(F182)</f>
+        <v>43</v>
+      </c>
+      <c r="F182" s="5">
+        <v>67</v>
+      </c>
+      <c r="G182" s="5" t="str">
+        <f>CHAR(F182)</f>
+        <v>C</v>
+      </c>
+      <c r="H182" s="5"/>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E183" s="4" t="str">
+        <f>DEC2HEX(F183)</f>
+        <v>5A</v>
+      </c>
+      <c r="F183" s="5">
+        <v>90</v>
+      </c>
+      <c r="G183" s="5" t="str">
+        <f>CHAR(F183)</f>
+        <v>Z</v>
+      </c>
+      <c r="H183" s="5"/>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A184" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E184" s="4" t="str">
+        <f>DEC2HEX(F184)</f>
+        <v>5B</v>
+      </c>
+      <c r="F184" s="5">
+        <v>91</v>
+      </c>
+      <c r="G184" s="5" t="str">
+        <f>CHAR(F184)</f>
+        <v>[</v>
+      </c>
+      <c r="H184" s="5"/>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E185" s="4" t="str">
+        <f>DEC2HEX(F185)</f>
+        <v>63</v>
+      </c>
+      <c r="F185" s="5">
+        <v>99</v>
+      </c>
+      <c r="G185" s="5" t="str">
+        <f>CHAR(F185)</f>
+        <v>c</v>
+      </c>
+      <c r="H185" s="5"/>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E186" s="4" t="str">
+        <f>DEC2HEX(F186)</f>
+        <v>6B</v>
+      </c>
+      <c r="F186" s="5">
+        <v>107</v>
+      </c>
+      <c r="G186" s="5" t="str">
+        <f>CHAR(F186)</f>
+        <v>k</v>
+      </c>
+      <c r="H186" s="5"/>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A187" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E187" s="4" t="str">
+        <f>DEC2HEX(F187)</f>
+        <v>6C</v>
+      </c>
+      <c r="F187" s="5">
+        <v>108</v>
+      </c>
+      <c r="G187" s="5" t="str">
+        <f>CHAR(F187)</f>
+        <v>l</v>
+      </c>
+      <c r="H187" s="5"/>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A188" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B188" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G181" s="2" t="str">
-        <f>CHAR(F181)</f>
-        <v>2</v>
-      </c>
-      <c r="H181" s="2"/>
-      <c r="I181" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E182" s="1" t="str">
-        <f>DEC2HEX(F182)</f>
-        <v>33</v>
-      </c>
-      <c r="F182" s="2">
-        <v>51</v>
-      </c>
-      <c r="G182" s="2" t="str">
-        <f>CHAR(F182)</f>
-        <v>3</v>
-      </c>
-      <c r="H182" s="2"/>
-      <c r="I182" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E183" s="1" t="str">
-        <f>DEC2HEX(F183)</f>
-        <v>34</v>
-      </c>
-      <c r="F183" s="2">
-        <v>52</v>
-      </c>
-      <c r="G183" s="2" t="str">
-        <f>CHAR(F183)</f>
-        <v>4</v>
-      </c>
-      <c r="H183" s="2"/>
-      <c r="I183" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E184" s="1" t="str">
-        <f>DEC2HEX(F184)</f>
-        <v>35</v>
-      </c>
-      <c r="F184" s="2">
-        <v>53</v>
-      </c>
-      <c r="G184" s="2" t="str">
-        <f>CHAR(F184)</f>
-        <v>5</v>
-      </c>
-      <c r="H184" s="2"/>
-      <c r="I184" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E185" s="1" t="str">
-        <f>DEC2HEX(F185)</f>
-        <v>36</v>
-      </c>
-      <c r="F185" s="2">
-        <v>54</v>
-      </c>
-      <c r="G185" s="2" t="str">
-        <f>CHAR(F185)</f>
-        <v>6</v>
-      </c>
-      <c r="H185" s="2"/>
-      <c r="I185" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E186" s="1" t="str">
-        <f>DEC2HEX(F186)</f>
-        <v>37</v>
-      </c>
-      <c r="F186" s="2">
-        <v>55</v>
-      </c>
-      <c r="G186" s="2" t="str">
-        <f>CHAR(F186)</f>
-        <v>7</v>
-      </c>
-      <c r="H186" s="2"/>
-      <c r="I186" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E187" s="1" t="str">
-        <f>DEC2HEX(F187)</f>
-        <v>38</v>
-      </c>
-      <c r="F187" s="2">
-        <v>56</v>
-      </c>
-      <c r="G187" s="2" t="str">
-        <f>CHAR(F187)</f>
-        <v>8</v>
-      </c>
-      <c r="H187" s="2"/>
-      <c r="I187" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E188" s="1" t="str">
+      <c r="E188" s="4" t="str">
         <f>DEC2HEX(F188)</f>
-        <v>39</v>
-      </c>
-      <c r="F188" s="2">
-        <v>57</v>
-      </c>
-      <c r="G188" s="2" t="str">
+        <v>A5</v>
+      </c>
+      <c r="F188" s="5">
+        <v>165</v>
+      </c>
+      <c r="G188" s="5" t="str">
         <f>CHAR(F188)</f>
-        <v>9</v>
-      </c>
-      <c r="H188" s="2"/>
-      <c r="I188" s="1" t="s">
-        <v>167</v>
-      </c>
+        <v>¥</v>
+      </c>
+      <c r="H188" s="5"/>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="E189" s="4" t="str">
         <f>DEC2HEX(F189)</f>
-        <v>3A</v>
+        <v>A6</v>
       </c>
       <c r="F189" s="5">
-        <v>58</v>
+        <v>166</v>
       </c>
       <c r="G189" s="5" t="str">
         <f>CHAR(F189)</f>
-        <v>:</v>
-      </c>
-      <c r="H189" s="5">
-        <v>5000</v>
-      </c>
-      <c r="J189" s="4">
-        <v>876</v>
-      </c>
-      <c r="K189" s="4">
-        <v>879</v>
-      </c>
-      <c r="L189" s="4">
-        <v>177</v>
-      </c>
-      <c r="M189" s="4" t="str">
-        <f>"wepo "&amp;H189&amp;","&amp;J189&amp;" //"&amp;L189</f>
-        <v>wepo 5000,876 //177</v>
-      </c>
+        <v>¦</v>
+      </c>
+      <c r="H189" s="5"/>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="E190" s="4" t="str">
         <f>DEC2HEX(F190)</f>
-        <v>3A</v>
+        <v>AB</v>
       </c>
       <c r="F190" s="5">
-        <v>58</v>
+        <v>171</v>
       </c>
       <c r="G190" s="5" t="str">
         <f>CHAR(F190)</f>
-        <v>:</v>
-      </c>
-      <c r="H190" s="5">
-        <v>5000</v>
-      </c>
-      <c r="J190" s="4">
-        <v>880</v>
-      </c>
-      <c r="K190" s="4">
-        <v>883</v>
-      </c>
-      <c r="L190" s="5">
-        <v>178</v>
-      </c>
-      <c r="M190" s="4" t="str">
-        <f>"wepo "&amp;H190&amp;","&amp;J190&amp;" //"&amp;L190</f>
-        <v>wepo 5000,880 //178</v>
-      </c>
+        <v>«</v>
+      </c>
+      <c r="H190" s="5"/>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="E191" s="4" t="str">
         <f>DEC2HEX(F191)</f>
-        <v>3A</v>
+        <v>AC</v>
       </c>
       <c r="F191" s="5">
-        <v>58</v>
+        <v>172</v>
       </c>
       <c r="G191" s="5" t="str">
         <f>CHAR(F191)</f>
-        <v>:</v>
-      </c>
-      <c r="H191" s="5">
-        <v>5000</v>
-      </c>
-      <c r="J191" s="1">
-        <v>892</v>
-      </c>
-      <c r="K191" s="4">
-        <v>895</v>
-      </c>
-      <c r="L191" s="4">
-        <v>181</v>
-      </c>
-      <c r="M191" s="4" t="str">
-        <f>"wepo "&amp;H191&amp;","&amp;J191&amp;" //"&amp;L191</f>
-        <v>wepo 5000,892 //181</v>
-      </c>
+        <v>¬</v>
+      </c>
+      <c r="H191" s="5"/>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A192" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>212</v>
+      </c>
       <c r="E192" s="4" t="str">
         <f>DEC2HEX(F192)</f>
-        <v>3A</v>
+        <v>58</v>
       </c>
       <c r="F192" s="5">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="G192" s="5" t="str">
         <f>CHAR(F192)</f>
-        <v>:</v>
+        <v>X</v>
       </c>
       <c r="H192" s="5"/>
-      <c r="J192" s="4">
-        <v>424</v>
-      </c>
-      <c r="K192" s="4">
-        <v>427</v>
-      </c>
-      <c r="L192" s="4">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A193" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="E193" s="4" t="str">
         <f>DEC2HEX(F193)</f>
-        <v>3B</v>
+        <v>6A</v>
       </c>
       <c r="F193" s="5">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="G193" s="5" t="str">
         <f>CHAR(F193)</f>
-        <v>;</v>
+        <v>j</v>
       </c>
       <c r="H193" s="5"/>
-      <c r="J193" s="4">
-        <v>428</v>
-      </c>
-      <c r="K193" s="4">
-        <v>431</v>
-      </c>
-      <c r="L193" s="5">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>161</v>
+        <v>264</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="E194" s="4" t="str">
         <f>DEC2HEX(F194)</f>
-        <v>3D</v>
+        <v>71</v>
       </c>
       <c r="F194" s="5">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="G194" s="5" t="str">
         <f>CHAR(F194)</f>
-        <v>=</v>
+        <v>q</v>
       </c>
       <c r="H194" s="5"/>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>229</v>
+        <v>57</v>
       </c>
       <c r="E195" s="4" t="str">
         <f>DEC2HEX(F195)</f>
-        <v>41</v>
+        <v>B7</v>
       </c>
       <c r="F195" s="5">
-        <v>65</v>
+        <v>183</v>
       </c>
       <c r="G195" s="5" t="str">
         <f>CHAR(F195)</f>
-        <v>A</v>
+        <v>·</v>
       </c>
       <c r="H195" s="5"/>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>16</v>
+        <v>264</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="E196" s="4" t="str">
         <f>DEC2HEX(F196)</f>
-        <v>43</v>
+        <v>B8</v>
       </c>
       <c r="F196" s="5">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="G196" s="5" t="str">
         <f>CHAR(F196)</f>
-        <v>C</v>
+        <v>¸</v>
       </c>
       <c r="H196" s="5"/>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E197" s="4" t="str">
         <f>DEC2HEX(F197)</f>
-        <v>4A</v>
+        <v>5E</v>
       </c>
       <c r="F197" s="5">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="G197" s="5" t="str">
         <f>CHAR(F197)</f>
-        <v>J</v>
+        <v>^</v>
       </c>
       <c r="H197" s="5"/>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>179</v>
+        <v>18</v>
       </c>
       <c r="E198" s="4" t="str">
         <f>DEC2HEX(F198)</f>
-        <v>4B</v>
+        <v>5E</v>
       </c>
       <c r="F198" s="5">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="G198" s="5" t="str">
         <f>CHAR(F198)</f>
-        <v>K</v>
+        <v>^</v>
       </c>
       <c r="H198" s="5"/>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>443</v>
+        <v>17</v>
       </c>
       <c r="E199" s="4" t="str">
         <f>DEC2HEX(F199)</f>
-        <v>4E</v>
+        <v>5F</v>
       </c>
       <c r="F199" s="5">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="G199" s="5" t="str">
         <f>CHAR(F199)</f>
-        <v>N</v>
+        <v>_</v>
       </c>
       <c r="H199" s="5"/>
-      <c r="J199" s="4">
-        <v>416</v>
-      </c>
-      <c r="K199" s="4">
-        <v>419</v>
-      </c>
-      <c r="L199" s="4">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E200" s="4" t="str">
         <f>DEC2HEX(F200)</f>
-        <v>51</v>
+        <v>5F</v>
       </c>
       <c r="F200" s="5">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G200" s="5" t="str">
         <f>CHAR(F200)</f>
-        <v>Q</v>
+        <v>_</v>
       </c>
       <c r="H200" s="5"/>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E201" s="4" t="str">
         <f>DEC2HEX(F201)</f>
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F201" s="5">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="G201" s="5" t="str">
         <f>CHAR(F201)</f>
-        <v>R</v>
+        <v>d</v>
       </c>
       <c r="H201" s="5"/>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>212</v>
+        <v>24</v>
       </c>
       <c r="E202" s="4" t="str">
         <f>DEC2HEX(F202)</f>
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F202" s="5">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="G202" s="5" t="str">
         <f>CHAR(F202)</f>
-        <v>X</v>
+        <v>e</v>
       </c>
       <c r="H202" s="5"/>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="E203" s="4" t="str">
         <f>DEC2HEX(F203)</f>
-        <v>5A</v>
+        <v>C6</v>
       </c>
       <c r="F203" s="5">
-        <v>90</v>
+        <v>198</v>
       </c>
       <c r="G203" s="5" t="str">
         <f>CHAR(F203)</f>
-        <v>Z</v>
+        <v>Æ</v>
       </c>
       <c r="H203" s="5"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="E204" s="4" t="str">
         <f>DEC2HEX(F204)</f>
-        <v>5B</v>
+        <v>CF</v>
       </c>
       <c r="F204" s="5">
-        <v>91</v>
+        <v>207</v>
       </c>
       <c r="G204" s="5" t="str">
         <f>CHAR(F204)</f>
-        <v>[</v>
+        <v>Ï</v>
       </c>
       <c r="H204" s="5"/>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E205" s="1" t="str">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A205" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="E205" s="4" t="str">
         <f>DEC2HEX(F205)</f>
-        <v>5C</v>
-      </c>
-      <c r="F205" s="2">
-        <v>92</v>
-      </c>
-      <c r="G205" s="2" t="str">
+        <v>A4</v>
+      </c>
+      <c r="F205" s="5">
+        <v>164</v>
+      </c>
+      <c r="G205" s="5" t="str">
         <f>CHAR(F205)</f>
-        <v>\</v>
-      </c>
-      <c r="H205" s="2"/>
-      <c r="I205" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+        <v>¤</v>
+      </c>
+      <c r="H205" s="5"/>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A206" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>433</v>
+      </c>
       <c r="E206" s="4" t="str">
         <f>DEC2HEX(F206)</f>
-        <v>5D</v>
+        <v>62</v>
       </c>
       <c r="F206" s="5">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G206" s="5" t="str">
         <f>CHAR(F206)</f>
-        <v>]</v>
+        <v>b</v>
       </c>
       <c r="H206" s="5"/>
-      <c r="I206" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B207" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E207" s="4" t="str">
         <f>DEC2HEX(F207)</f>
-        <v>5E</v>
+        <v>7F</v>
       </c>
       <c r="F207" s="5">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="G207" s="5" t="str">
         <f>CHAR(F207)</f>
-        <v>^</v>
+        <v></v>
       </c>
       <c r="H207" s="5"/>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L207" s="4">
+        <v>89</v>
+      </c>
+      <c r="M207" s="4" t="str">
+        <f>"wepo "&amp;H207&amp;","&amp;C207&amp;" //"&amp;L207</f>
+        <v>wepo , //89</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B208" s="4" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="E208" s="4" t="str">
         <f>DEC2HEX(F208)</f>
-        <v>5E</v>
+        <v>80</v>
       </c>
       <c r="F208" s="5">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="G208" s="5" t="str">
         <f>CHAR(F208)</f>
-        <v>^</v>
+        <v>€</v>
       </c>
       <c r="H208" s="5"/>
+      <c r="L208" s="5">
+        <v>90</v>
+      </c>
+      <c r="M208" s="4" t="str">
+        <f>"wepo "&amp;H208&amp;","&amp;C208&amp;" //"&amp;L208</f>
+        <v>wepo , //90</v>
+      </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B209" s="4" t="s">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="E209" s="4" t="str">
         <f>DEC2HEX(F209)</f>
-        <v>5F</v>
+        <v>81</v>
       </c>
       <c r="F209" s="5">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G209" s="5" t="str">
         <f>CHAR(F209)</f>
-        <v>_</v>
+        <v></v>
       </c>
       <c r="H209" s="5"/>
+      <c r="L209" s="4">
+        <v>91</v>
+      </c>
+      <c r="M209" s="4" t="str">
+        <f>"wepo "&amp;H209&amp;","&amp;C209&amp;" //"&amp;L209</f>
+        <v>wepo , //91</v>
+      </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B210" s="4" t="s">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="E210" s="4" t="str">
         <f>DEC2HEX(F210)</f>
-        <v>5F</v>
+        <v>82</v>
       </c>
       <c r="F210" s="5">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="G210" s="5" t="str">
         <f>CHAR(F210)</f>
-        <v>_</v>
+        <v>‚</v>
       </c>
       <c r="H210" s="5"/>
+      <c r="L210" s="5">
+        <v>92</v>
+      </c>
+      <c r="M210" s="4" t="str">
+        <f>"wepo "&amp;H210&amp;","&amp;C210&amp;" //"&amp;L210</f>
+        <v>wepo , //92</v>
+      </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E211" s="1" t="str">
+      <c r="A211" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E211" s="4" t="str">
         <f>DEC2HEX(F211)</f>
-        <v>60</v>
-      </c>
-      <c r="F211" s="2">
-        <v>96</v>
-      </c>
-      <c r="G211" s="2" t="str">
+        <v>83</v>
+      </c>
+      <c r="F211" s="5">
+        <v>131</v>
+      </c>
+      <c r="G211" s="5" t="str">
         <f>CHAR(F211)</f>
-        <v>`</v>
-      </c>
-      <c r="H211" s="2"/>
-      <c r="I211" s="1" t="s">
-        <v>167</v>
+        <v>ƒ</v>
+      </c>
+      <c r="H211" s="5"/>
+      <c r="L211" s="4">
+        <v>93</v>
+      </c>
+      <c r="M211" s="4" t="str">
+        <f>"wepo "&amp;H211&amp;","&amp;C211&amp;" //"&amp;L211</f>
+        <v>wepo , //93</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B212" s="4" t="s">
-        <v>433</v>
-      </c>
       <c r="E212" s="4" t="str">
         <f>DEC2HEX(F212)</f>
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F212" s="5">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="G212" s="5" t="str">
         <f>CHAR(F212)</f>
-        <v>b</v>
+        <v>„</v>
       </c>
       <c r="H212" s="5"/>
+      <c r="L212" s="5">
+        <v>94</v>
+      </c>
+      <c r="M212" s="4" t="str">
+        <f>"wepo "&amp;H212&amp;","&amp;C212&amp;" //"&amp;L212</f>
+        <v>wepo , //94</v>
+      </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B213" s="4" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="E213" s="4" t="str">
         <f>DEC2HEX(F213)</f>
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F213" s="5">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="G213" s="5" t="str">
         <f>CHAR(F213)</f>
-        <v>c</v>
+        <v>…</v>
       </c>
       <c r="H213" s="5"/>
+      <c r="L213" s="4">
+        <v>95</v>
+      </c>
+      <c r="M213" s="4" t="str">
+        <f>"wepo "&amp;H213&amp;","&amp;C213&amp;" //"&amp;L213</f>
+        <v>wepo , //95</v>
+      </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="E214" s="4" t="str">
         <f>DEC2HEX(F214)</f>
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="F214" s="5">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="G214" s="5" t="str">
         <f>CHAR(F214)</f>
-        <v>d</v>
+        <v>†</v>
       </c>
       <c r="H214" s="5"/>
+      <c r="L214" s="5">
+        <v>96</v>
+      </c>
+      <c r="M214" s="4" t="str">
+        <f>"wepo "&amp;H214&amp;","&amp;C214&amp;" //"&amp;L214</f>
+        <v>wepo , //96</v>
+      </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B215" s="4" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
       <c r="E215" s="4" t="str">
         <f>DEC2HEX(F215)</f>
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="F215" s="5">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="G215" s="5" t="str">
         <f>CHAR(F215)</f>
-        <v>e</v>
+        <v>‡</v>
       </c>
       <c r="H215" s="5"/>
+      <c r="L215" s="4">
+        <v>97</v>
+      </c>
+      <c r="M215" s="4" t="str">
+        <f>"wepo "&amp;H215&amp;","&amp;C215&amp;" //"&amp;L215</f>
+        <v>wepo , //97</v>
+      </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B216" s="4" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="E216" s="4" t="str">
         <f>DEC2HEX(F216)</f>
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="F216" s="5">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="G216" s="5" t="str">
         <f>CHAR(F216)</f>
-        <v>i</v>
+        <v>ˆ</v>
       </c>
       <c r="H216" s="5"/>
+      <c r="L216" s="5">
+        <v>98</v>
+      </c>
+      <c r="M216" s="4" t="str">
+        <f>"wepo "&amp;H216&amp;","&amp;C216&amp;" //"&amp;L216</f>
+        <v>wepo , //98</v>
+      </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B217" s="4" t="s">
-        <v>43</v>
+        <v>178</v>
       </c>
       <c r="E217" s="4" t="str">
         <f>DEC2HEX(F217)</f>
-        <v>6A</v>
+        <v>89</v>
       </c>
       <c r="F217" s="5">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="G217" s="5" t="str">
         <f>CHAR(F217)</f>
-        <v>j</v>
+        <v>‰</v>
       </c>
       <c r="H217" s="5"/>
+      <c r="L217" s="4">
+        <v>99</v>
+      </c>
+      <c r="M217" s="4" t="str">
+        <f>"wepo "&amp;H217&amp;","&amp;C217&amp;" //"&amp;L217</f>
+        <v>wepo , //99</v>
+      </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B218" s="4" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="E218" s="4" t="str">
         <f>DEC2HEX(F218)</f>
-        <v>6B</v>
+        <v>8A</v>
       </c>
       <c r="F218" s="5">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="G218" s="5" t="str">
         <f>CHAR(F218)</f>
-        <v>k</v>
+        <v>Š</v>
       </c>
       <c r="H218" s="5"/>
+      <c r="L218" s="5">
+        <v>100</v>
+      </c>
+      <c r="M218" s="4" t="str">
+        <f>"wepo "&amp;H218&amp;","&amp;C218&amp;" //"&amp;L218</f>
+        <v>wepo , //100</v>
+      </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B219" s="4" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="E219" s="4" t="str">
         <f>DEC2HEX(F219)</f>
-        <v>6C</v>
+        <v>8B</v>
       </c>
       <c r="F219" s="5">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="G219" s="5" t="str">
         <f>CHAR(F219)</f>
-        <v>l</v>
+        <v>‹</v>
       </c>
       <c r="H219" s="5"/>
+      <c r="L219" s="4">
+        <v>101</v>
+      </c>
+      <c r="M219" s="4" t="str">
+        <f>"wepo "&amp;H219&amp;","&amp;C219&amp;" //"&amp;L219</f>
+        <v>wepo , //101</v>
+      </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B220" s="4" t="s">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="E220" s="4" t="str">
         <f>DEC2HEX(F220)</f>
-        <v>71</v>
+        <v>8C</v>
       </c>
       <c r="F220" s="5">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="G220" s="5" t="str">
         <f>CHAR(F220)</f>
-        <v>q</v>
+        <v>Œ</v>
       </c>
       <c r="H220" s="5"/>
+      <c r="L220" s="5">
+        <v>102</v>
+      </c>
+      <c r="M220" s="4" t="str">
+        <f>"wepo "&amp;H220&amp;","&amp;C220&amp;" //"&amp;L220</f>
+        <v>wepo , //102</v>
+      </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A221" s="4" t="s">
+        <v>178</v>
+      </c>
       <c r="E221" s="4" t="str">
         <f>DEC2HEX(F221)</f>
-        <v>7C</v>
+        <v>8D</v>
       </c>
       <c r="F221" s="5">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="G221" s="5" t="str">
         <f>CHAR(F221)</f>
-        <v>|</v>
+        <v></v>
       </c>
       <c r="H221" s="5"/>
-      <c r="I221" s="4" t="s">
-        <v>166</v>
+      <c r="L221" s="4">
+        <v>103</v>
+      </c>
+      <c r="M221" s="4" t="str">
+        <f>"wepo "&amp;H221&amp;","&amp;C221&amp;" //"&amp;L221</f>
+        <v>wepo , //103</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B222" s="4" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="E222" s="4" t="str">
         <f>DEC2HEX(F222)</f>
-        <v>7E</v>
+        <v>8E</v>
       </c>
       <c r="F222" s="5">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="G222" s="5" t="str">
         <f>CHAR(F222)</f>
-        <v>~</v>
+        <v>Ž</v>
       </c>
       <c r="H222" s="5"/>
+      <c r="L222" s="5">
+        <v>104</v>
+      </c>
+      <c r="M222" s="4" t="str">
+        <f>"wepo "&amp;H222&amp;","&amp;C222&amp;" //"&amp;L222</f>
+        <v>wepo , //104</v>
+      </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
@@ -9149,39 +9265,46 @@
       </c>
       <c r="E223" s="4" t="str">
         <f>DEC2HEX(F223)</f>
-        <v>7F</v>
+        <v>8F</v>
       </c>
       <c r="F223" s="5">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="G223" s="5" t="str">
         <f>CHAR(F223)</f>
-        <v></v>
+        <v></v>
       </c>
       <c r="H223" s="5"/>
       <c r="L223" s="4">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="M223" s="4" t="str">
         <f>"wepo "&amp;H223&amp;","&amp;C223&amp;" //"&amp;L223</f>
-        <v>wepo , //89</v>
+        <v>wepo , //105</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E224" s="1" t="str">
+      <c r="A224" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E224" s="4" t="str">
         <f>DEC2HEX(F224)</f>
-        <v>7F</v>
-      </c>
-      <c r="F224" s="2">
-        <v>127</v>
-      </c>
-      <c r="G224" s="2" t="str">
+        <v>90</v>
+      </c>
+      <c r="F224" s="5">
+        <v>144</v>
+      </c>
+      <c r="G224" s="5" t="str">
         <f>CHAR(F224)</f>
-        <v></v>
-      </c>
-      <c r="H224" s="2"/>
-      <c r="I224" s="1" t="s">
-        <v>167</v>
+        <v></v>
+      </c>
+      <c r="H224" s="5"/>
+      <c r="L224" s="5">
+        <v>106</v>
+      </c>
+      <c r="M224" s="4" t="str">
+        <f>"wepo "&amp;H224&amp;","&amp;C224&amp;" //"&amp;L224</f>
+        <v>wepo , //106</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -9190,39 +9313,46 @@
       </c>
       <c r="E225" s="4" t="str">
         <f>DEC2HEX(F225)</f>
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F225" s="5">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="G225" s="5" t="str">
         <f>CHAR(F225)</f>
-        <v>€</v>
+        <v>‘</v>
       </c>
       <c r="H225" s="5"/>
-      <c r="L225" s="5">
-        <v>90</v>
+      <c r="L225" s="4">
+        <v>107</v>
       </c>
       <c r="M225" s="4" t="str">
         <f>"wepo "&amp;H225&amp;","&amp;C225&amp;" //"&amp;L225</f>
-        <v>wepo , //90</v>
+        <v>wepo , //107</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E226" s="1" t="str">
+      <c r="A226" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E226" s="4" t="str">
         <f>DEC2HEX(F226)</f>
-        <v>80</v>
-      </c>
-      <c r="F226" s="2">
-        <v>128</v>
-      </c>
-      <c r="G226" s="2" t="str">
+        <v>91</v>
+      </c>
+      <c r="F226" s="5">
+        <v>145</v>
+      </c>
+      <c r="G226" s="5" t="str">
         <f>CHAR(F226)</f>
-        <v>€</v>
-      </c>
-      <c r="H226" s="2"/>
-      <c r="I226" s="1" t="s">
-        <v>167</v>
+        <v>‘</v>
+      </c>
+      <c r="H226" s="5"/>
+      <c r="L226" s="5">
+        <v>108</v>
+      </c>
+      <c r="M226" s="4" t="str">
+        <f>"wepo "&amp;H226&amp;","&amp;C226&amp;" //"&amp;L226</f>
+        <v>wepo , //108</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
@@ -9231,39 +9361,46 @@
       </c>
       <c r="E227" s="4" t="str">
         <f>DEC2HEX(F227)</f>
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F227" s="5">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="G227" s="5" t="str">
         <f>CHAR(F227)</f>
-        <v></v>
+        <v>’</v>
       </c>
       <c r="H227" s="5"/>
       <c r="L227" s="4">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="M227" s="4" t="str">
         <f>"wepo "&amp;H227&amp;","&amp;C227&amp;" //"&amp;L227</f>
-        <v>wepo , //91</v>
+        <v>wepo , //109</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E228" s="1" t="str">
+      <c r="A228" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E228" s="4" t="str">
         <f>DEC2HEX(F228)</f>
-        <v>81</v>
-      </c>
-      <c r="F228" s="2">
-        <v>129</v>
-      </c>
-      <c r="G228" s="2" t="str">
+        <v>93</v>
+      </c>
+      <c r="F228" s="5">
+        <v>147</v>
+      </c>
+      <c r="G228" s="5" t="str">
         <f>CHAR(F228)</f>
-        <v></v>
-      </c>
-      <c r="H228" s="2"/>
-      <c r="I228" s="1" t="s">
-        <v>167</v>
+        <v>“</v>
+      </c>
+      <c r="H228" s="5"/>
+      <c r="L228" s="5">
+        <v>110</v>
+      </c>
+      <c r="M228" s="4" t="str">
+        <f>"wepo "&amp;H228&amp;","&amp;C228&amp;" //"&amp;L228</f>
+        <v>wepo , //110</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
@@ -9272,39 +9409,46 @@
       </c>
       <c r="E229" s="4" t="str">
         <f>DEC2HEX(F229)</f>
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="F229" s="5">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="G229" s="5" t="str">
         <f>CHAR(F229)</f>
-        <v>‚</v>
+        <v>”</v>
       </c>
       <c r="H229" s="5"/>
-      <c r="L229" s="5">
-        <v>92</v>
+      <c r="L229" s="4">
+        <v>111</v>
       </c>
       <c r="M229" s="4" t="str">
         <f>"wepo "&amp;H229&amp;","&amp;C229&amp;" //"&amp;L229</f>
-        <v>wepo , //92</v>
+        <v>wepo , //111</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E230" s="1" t="str">
+      <c r="A230" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E230" s="4" t="str">
         <f>DEC2HEX(F230)</f>
-        <v>82</v>
-      </c>
-      <c r="F230" s="2">
-        <v>130</v>
-      </c>
-      <c r="G230" s="2" t="str">
+        <v>95</v>
+      </c>
+      <c r="F230" s="5">
+        <v>149</v>
+      </c>
+      <c r="G230" s="5" t="str">
         <f>CHAR(F230)</f>
-        <v>‚</v>
-      </c>
-      <c r="H230" s="2"/>
-      <c r="I230" s="1" t="s">
-        <v>167</v>
+        <v>•</v>
+      </c>
+      <c r="H230" s="5"/>
+      <c r="L230" s="5">
+        <v>112</v>
+      </c>
+      <c r="M230" s="4" t="str">
+        <f>"wepo "&amp;H230&amp;","&amp;C230&amp;" //"&amp;L230</f>
+        <v>wepo , //112</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
@@ -9313,39 +9457,46 @@
       </c>
       <c r="E231" s="4" t="str">
         <f>DEC2HEX(F231)</f>
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F231" s="5">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="G231" s="5" t="str">
         <f>CHAR(F231)</f>
-        <v>ƒ</v>
+        <v>–</v>
       </c>
       <c r="H231" s="5"/>
       <c r="L231" s="4">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="M231" s="4" t="str">
         <f>"wepo "&amp;H231&amp;","&amp;C231&amp;" //"&amp;L231</f>
-        <v>wepo , //93</v>
+        <v>wepo , //113</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E232" s="1" t="str">
+      <c r="A232" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E232" s="4" t="str">
         <f>DEC2HEX(F232)</f>
-        <v>83</v>
-      </c>
-      <c r="F232" s="2">
-        <v>131</v>
-      </c>
-      <c r="G232" s="2" t="str">
+        <v>97</v>
+      </c>
+      <c r="F232" s="5">
+        <v>151</v>
+      </c>
+      <c r="G232" s="5" t="str">
         <f>CHAR(F232)</f>
-        <v>ƒ</v>
-      </c>
-      <c r="H232" s="2"/>
-      <c r="I232" s="1" t="s">
-        <v>167</v>
+        <v>—</v>
+      </c>
+      <c r="H232" s="5"/>
+      <c r="L232" s="5">
+        <v>114</v>
+      </c>
+      <c r="M232" s="4" t="str">
+        <f>"wepo "&amp;H232&amp;","&amp;C232&amp;" //"&amp;L232</f>
+        <v>wepo , //114</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
@@ -9354,39 +9505,46 @@
       </c>
       <c r="E233" s="4" t="str">
         <f>DEC2HEX(F233)</f>
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F233" s="5">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="G233" s="5" t="str">
         <f>CHAR(F233)</f>
-        <v>„</v>
+        <v>˜</v>
       </c>
       <c r="H233" s="5"/>
-      <c r="L233" s="5">
-        <v>94</v>
+      <c r="L233" s="4">
+        <v>115</v>
       </c>
       <c r="M233" s="4" t="str">
         <f>"wepo "&amp;H233&amp;","&amp;C233&amp;" //"&amp;L233</f>
-        <v>wepo , //94</v>
+        <v>wepo , //115</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E234" s="1" t="str">
+      <c r="A234" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E234" s="4" t="str">
         <f>DEC2HEX(F234)</f>
-        <v>84</v>
-      </c>
-      <c r="F234" s="2">
-        <v>132</v>
-      </c>
-      <c r="G234" s="2" t="str">
+        <v>99</v>
+      </c>
+      <c r="F234" s="5">
+        <v>153</v>
+      </c>
+      <c r="G234" s="5" t="str">
         <f>CHAR(F234)</f>
-        <v>„</v>
-      </c>
-      <c r="H234" s="2"/>
-      <c r="I234" s="1" t="s">
-        <v>167</v>
+        <v>™</v>
+      </c>
+      <c r="H234" s="5"/>
+      <c r="L234" s="5">
+        <v>116</v>
+      </c>
+      <c r="M234" s="4" t="str">
+        <f>"wepo "&amp;H234&amp;","&amp;C234&amp;" //"&amp;L234</f>
+        <v>wepo , //116</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
@@ -9395,39 +9553,46 @@
       </c>
       <c r="E235" s="4" t="str">
         <f>DEC2HEX(F235)</f>
-        <v>85</v>
+        <v>9A</v>
       </c>
       <c r="F235" s="5">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="G235" s="5" t="str">
         <f>CHAR(F235)</f>
-        <v>…</v>
+        <v>š</v>
       </c>
       <c r="H235" s="5"/>
       <c r="L235" s="4">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="M235" s="4" t="str">
         <f>"wepo "&amp;H235&amp;","&amp;C235&amp;" //"&amp;L235</f>
-        <v>wepo , //95</v>
+        <v>wepo , //117</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E236" s="1" t="str">
+      <c r="A236" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E236" s="4" t="str">
         <f>DEC2HEX(F236)</f>
-        <v>85</v>
-      </c>
-      <c r="F236" s="2">
-        <v>133</v>
-      </c>
-      <c r="G236" s="2" t="str">
+        <v>9B</v>
+      </c>
+      <c r="F236" s="5">
+        <v>155</v>
+      </c>
+      <c r="G236" s="5" t="str">
         <f>CHAR(F236)</f>
-        <v>…</v>
-      </c>
-      <c r="H236" s="2"/>
-      <c r="I236" s="1" t="s">
-        <v>167</v>
+        <v>›</v>
+      </c>
+      <c r="H236" s="5"/>
+      <c r="L236" s="5">
+        <v>118</v>
+      </c>
+      <c r="M236" s="4" t="str">
+        <f>"wepo "&amp;H236&amp;","&amp;C236&amp;" //"&amp;L236</f>
+        <v>wepo , //118</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
@@ -9436,39 +9601,46 @@
       </c>
       <c r="E237" s="4" t="str">
         <f>DEC2HEX(F237)</f>
-        <v>86</v>
+        <v>9C</v>
       </c>
       <c r="F237" s="5">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="G237" s="5" t="str">
         <f>CHAR(F237)</f>
-        <v>†</v>
+        <v>œ</v>
       </c>
       <c r="H237" s="5"/>
-      <c r="L237" s="5">
-        <v>96</v>
+      <c r="L237" s="4">
+        <v>119</v>
       </c>
       <c r="M237" s="4" t="str">
         <f>"wepo "&amp;H237&amp;","&amp;C237&amp;" //"&amp;L237</f>
-        <v>wepo , //96</v>
+        <v>wepo , //119</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E238" s="1" t="str">
+      <c r="A238" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E238" s="4" t="str">
         <f>DEC2HEX(F238)</f>
-        <v>86</v>
-      </c>
-      <c r="F238" s="2">
-        <v>134</v>
-      </c>
-      <c r="G238" s="2" t="str">
+        <v>9D</v>
+      </c>
+      <c r="F238" s="5">
+        <v>157</v>
+      </c>
+      <c r="G238" s="5" t="str">
         <f>CHAR(F238)</f>
-        <v>†</v>
-      </c>
-      <c r="H238" s="2"/>
-      <c r="I238" s="1" t="s">
-        <v>167</v>
+        <v></v>
+      </c>
+      <c r="H238" s="5"/>
+      <c r="L238" s="5">
+        <v>120</v>
+      </c>
+      <c r="M238" s="4" t="str">
+        <f>"wepo "&amp;H238&amp;","&amp;C238&amp;" //"&amp;L238</f>
+        <v>wepo , //120</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
@@ -9477,39 +9649,46 @@
       </c>
       <c r="E239" s="4" t="str">
         <f>DEC2HEX(F239)</f>
-        <v>87</v>
+        <v>9E</v>
       </c>
       <c r="F239" s="5">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="G239" s="5" t="str">
         <f>CHAR(F239)</f>
-        <v>‡</v>
+        <v>ž</v>
       </c>
       <c r="H239" s="5"/>
       <c r="L239" s="4">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="M239" s="4" t="str">
         <f>"wepo "&amp;H239&amp;","&amp;C239&amp;" //"&amp;L239</f>
-        <v>wepo , //97</v>
+        <v>wepo , //121</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E240" s="1" t="str">
+      <c r="A240" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E240" s="4" t="str">
         <f>DEC2HEX(F240)</f>
-        <v>87</v>
-      </c>
-      <c r="F240" s="2">
-        <v>135</v>
-      </c>
-      <c r="G240" s="2" t="str">
+        <v>9F</v>
+      </c>
+      <c r="F240" s="5">
+        <v>159</v>
+      </c>
+      <c r="G240" s="5" t="str">
         <f>CHAR(F240)</f>
-        <v>‡</v>
-      </c>
-      <c r="H240" s="2"/>
-      <c r="I240" s="1" t="s">
-        <v>167</v>
+        <v>Ÿ</v>
+      </c>
+      <c r="H240" s="5"/>
+      <c r="L240" s="5">
+        <v>122</v>
+      </c>
+      <c r="M240" s="4" t="str">
+        <f>"wepo "&amp;H240&amp;","&amp;C240&amp;" //"&amp;L240</f>
+        <v>wepo , //122</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -9518,1790 +9697,1622 @@
       </c>
       <c r="E241" s="4" t="str">
         <f>DEC2HEX(F241)</f>
-        <v>88</v>
+        <v>A0</v>
       </c>
       <c r="F241" s="5">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="G241" s="5" t="str">
         <f>CHAR(F241)</f>
-        <v>ˆ</v>
+        <v> </v>
       </c>
       <c r="H241" s="5"/>
-      <c r="L241" s="5">
-        <v>98</v>
+      <c r="L241" s="4">
+        <v>123</v>
       </c>
       <c r="M241" s="4" t="str">
         <f>"wepo "&amp;H241&amp;","&amp;C241&amp;" //"&amp;L241</f>
-        <v>wepo , //98</v>
+        <v>wepo , //123</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E242" s="1" t="str">
+      <c r="A242" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E242" s="4" t="str">
         <f>DEC2HEX(F242)</f>
-        <v>88</v>
-      </c>
-      <c r="F242" s="2">
-        <v>136</v>
-      </c>
-      <c r="G242" s="2" t="str">
+        <v>41</v>
+      </c>
+      <c r="F242" s="5">
+        <v>65</v>
+      </c>
+      <c r="G242" s="5" t="str">
         <f>CHAR(F242)</f>
-        <v>ˆ</v>
-      </c>
-      <c r="H242" s="2"/>
-      <c r="I242" s="1" t="s">
-        <v>167</v>
-      </c>
+        <v>A</v>
+      </c>
+      <c r="H242" s="5"/>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
-        <v>178</v>
+        <v>230</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>443</v>
       </c>
       <c r="E243" s="4" t="str">
         <f>DEC2HEX(F243)</f>
-        <v>89</v>
+        <v>4E</v>
       </c>
       <c r="F243" s="5">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="G243" s="5" t="str">
         <f>CHAR(F243)</f>
-        <v>‰</v>
+        <v>N</v>
       </c>
       <c r="H243" s="5"/>
+      <c r="J243" s="4">
+        <v>416</v>
+      </c>
+      <c r="K243" s="4">
+        <v>419</v>
+      </c>
       <c r="L243" s="4">
-        <v>99</v>
-      </c>
-      <c r="M243" s="4" t="str">
-        <f>"wepo "&amp;H243&amp;","&amp;C243&amp;" //"&amp;L243</f>
-        <v>wepo , //99</v>
+        <v>75</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E244" s="1" t="str">
+      <c r="A244" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E244" s="4" t="str">
         <f>DEC2HEX(F244)</f>
-        <v>89</v>
-      </c>
-      <c r="F244" s="2">
-        <v>137</v>
-      </c>
-      <c r="G244" s="2" t="str">
+        <v>4A</v>
+      </c>
+      <c r="F244" s="5">
+        <v>74</v>
+      </c>
+      <c r="G244" s="5" t="str">
         <f>CHAR(F244)</f>
-        <v>‰</v>
-      </c>
-      <c r="H244" s="2"/>
-      <c r="I244" s="1" t="s">
-        <v>167</v>
-      </c>
+        <v>J</v>
+      </c>
+      <c r="H244" s="5"/>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
-        <v>178</v>
+        <v>120</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="E245" s="4" t="str">
         <f>DEC2HEX(F245)</f>
-        <v>8A</v>
+        <v>4B</v>
       </c>
       <c r="F245" s="5">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="G245" s="5" t="str">
         <f>CHAR(F245)</f>
-        <v>Š</v>
+        <v>K</v>
       </c>
       <c r="H245" s="5"/>
-      <c r="L245" s="5">
-        <v>100</v>
-      </c>
-      <c r="M245" s="4" t="str">
-        <f>"wepo "&amp;H245&amp;","&amp;C245&amp;" //"&amp;L245</f>
-        <v>wepo , //100</v>
-      </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E246" s="1" t="str">
+      <c r="A246" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E246" s="4" t="str">
         <f>DEC2HEX(F246)</f>
-        <v>8A</v>
-      </c>
-      <c r="F246" s="2">
-        <v>138</v>
-      </c>
-      <c r="G246" s="2" t="str">
+        <v>B1</v>
+      </c>
+      <c r="F246" s="5">
+        <v>177</v>
+      </c>
+      <c r="G246" s="5" t="str">
         <f>CHAR(F246)</f>
-        <v>Š</v>
-      </c>
-      <c r="H246" s="2"/>
-      <c r="I246" s="1" t="s">
-        <v>167</v>
-      </c>
+        <v>±</v>
+      </c>
+      <c r="H246" s="5"/>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
-        <v>178</v>
+        <v>120</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="E247" s="4" t="str">
         <f>DEC2HEX(F247)</f>
-        <v>8B</v>
+        <v>B2</v>
       </c>
       <c r="F247" s="5">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="G247" s="5" t="str">
         <f>CHAR(F247)</f>
-        <v>‹</v>
+        <v>²</v>
       </c>
       <c r="H247" s="5"/>
-      <c r="L247" s="4">
-        <v>101</v>
-      </c>
-      <c r="M247" s="4" t="str">
-        <f>"wepo "&amp;H247&amp;","&amp;C247&amp;" //"&amp;L247</f>
-        <v>wepo , //101</v>
-      </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E248" s="1" t="str">
-        <f>DEC2HEX(F248)</f>
-        <v>8B</v>
-      </c>
-      <c r="F248" s="2">
-        <v>139</v>
-      </c>
-      <c r="G248" s="2" t="str">
-        <f>CHAR(F248)</f>
-        <v>‹</v>
-      </c>
-      <c r="H248" s="2"/>
-      <c r="I248" s="1" t="s">
-        <v>167</v>
+      <c r="A248" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F248" s="5"/>
+      <c r="G248" s="5"/>
+      <c r="H248" s="5"/>
+      <c r="J248" s="4">
+        <v>888</v>
+      </c>
+      <c r="K248" s="4">
+        <v>891</v>
+      </c>
+      <c r="L248" s="5">
+        <v>180</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E249" s="4" t="str">
-        <f>DEC2HEX(F249)</f>
-        <v>8C</v>
-      </c>
-      <c r="F249" s="5">
-        <v>140</v>
-      </c>
-      <c r="G249" s="5" t="str">
-        <f>CHAR(F249)</f>
-        <v>Œ</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="F249" s="5"/>
+      <c r="G249" s="5"/>
       <c r="H249" s="5"/>
-      <c r="L249" s="5">
-        <v>102</v>
-      </c>
-      <c r="M249" s="4" t="str">
-        <f>"wepo "&amp;H249&amp;","&amp;C249&amp;" //"&amp;L249</f>
-        <v>wepo , //102</v>
+      <c r="J249" s="4">
+        <v>928</v>
+      </c>
+      <c r="K249" s="4">
+        <v>931</v>
+      </c>
+      <c r="L249" s="4">
+        <v>189</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E250" s="1" t="str">
+      <c r="E250" s="4" t="str">
         <f>DEC2HEX(F250)</f>
-        <v>8C</v>
-      </c>
-      <c r="F250" s="2">
-        <v>140</v>
-      </c>
-      <c r="G250" s="2" t="str">
+        <v>21</v>
+      </c>
+      <c r="F250" s="5">
+        <v>33</v>
+      </c>
+      <c r="G250" s="5" t="str">
         <f>CHAR(F250)</f>
-        <v>Œ</v>
-      </c>
-      <c r="H250" s="2"/>
-      <c r="I250" s="1" t="s">
-        <v>167</v>
+        <v>!</v>
+      </c>
+      <c r="H250" s="5"/>
+      <c r="I250" s="4" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A251" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="E251" s="4" t="str">
         <f>DEC2HEX(F251)</f>
-        <v>8D</v>
+        <v>22</v>
       </c>
       <c r="F251" s="5">
-        <v>141</v>
+        <v>34</v>
       </c>
       <c r="G251" s="5" t="str">
         <f>CHAR(F251)</f>
-        <v></v>
+        <v>"</v>
       </c>
       <c r="H251" s="5"/>
-      <c r="L251" s="4">
-        <v>103</v>
-      </c>
-      <c r="M251" s="4" t="str">
-        <f>"wepo "&amp;H251&amp;","&amp;C251&amp;" //"&amp;L251</f>
-        <v>wepo , //103</v>
+      <c r="I251" s="4" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E252" s="1" t="str">
+      <c r="E252" s="4" t="str">
         <f>DEC2HEX(F252)</f>
-        <v>8D</v>
-      </c>
-      <c r="F252" s="2">
-        <v>141</v>
-      </c>
-      <c r="G252" s="2" t="str">
+        <v>22</v>
+      </c>
+      <c r="F252" s="5">
+        <v>34</v>
+      </c>
+      <c r="G252" s="5" t="str">
         <f>CHAR(F252)</f>
-        <v></v>
-      </c>
-      <c r="H252" s="2"/>
-      <c r="I252" s="1" t="s">
-        <v>167</v>
+        <v>"</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A253" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="E253" s="4" t="str">
         <f>DEC2HEX(F253)</f>
-        <v>8E</v>
+        <v>23</v>
       </c>
       <c r="F253" s="5">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="G253" s="5" t="str">
         <f>CHAR(F253)</f>
-        <v>Ž</v>
+        <v>#</v>
       </c>
       <c r="H253" s="5"/>
-      <c r="L253" s="5">
-        <v>104</v>
-      </c>
-      <c r="M253" s="4" t="str">
-        <f>"wepo "&amp;H253&amp;","&amp;C253&amp;" //"&amp;L253</f>
-        <v>wepo , //104</v>
+      <c r="I253" s="4" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E254" s="1" t="str">
+      <c r="E254" s="4" t="str">
         <f>DEC2HEX(F254)</f>
-        <v>8E</v>
-      </c>
-      <c r="F254" s="2">
-        <v>142</v>
-      </c>
-      <c r="G254" s="2" t="str">
+        <v>24</v>
+      </c>
+      <c r="F254" s="5">
+        <v>36</v>
+      </c>
+      <c r="G254" s="5" t="str">
         <f>CHAR(F254)</f>
-        <v>Ž</v>
-      </c>
-      <c r="H254" s="2"/>
-      <c r="I254" s="1" t="s">
-        <v>167</v>
+        <v>$</v>
+      </c>
+      <c r="H254" s="5"/>
+      <c r="I254" s="4" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A255" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="E255" s="4" t="str">
         <f>DEC2HEX(F255)</f>
-        <v>8F</v>
+        <v>25</v>
       </c>
       <c r="F255" s="5">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="G255" s="5" t="str">
         <f>CHAR(F255)</f>
-        <v></v>
+        <v>%</v>
       </c>
       <c r="H255" s="5"/>
-      <c r="L255" s="4">
-        <v>105</v>
-      </c>
-      <c r="M255" s="4" t="str">
-        <f>"wepo "&amp;H255&amp;","&amp;C255&amp;" //"&amp;L255</f>
-        <v>wepo , //105</v>
+      <c r="I255" s="4" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E256" s="1" t="str">
+      <c r="E256" s="4" t="str">
         <f>DEC2HEX(F256)</f>
-        <v>8F</v>
-      </c>
-      <c r="F256" s="2">
-        <v>143</v>
-      </c>
-      <c r="G256" s="2" t="str">
+        <v>26</v>
+      </c>
+      <c r="F256" s="5">
+        <v>38</v>
+      </c>
+      <c r="G256" s="5" t="str">
         <f>CHAR(F256)</f>
-        <v></v>
-      </c>
-      <c r="H256" s="2"/>
-      <c r="I256" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A257" s="4" t="s">
-        <v>178</v>
-      </c>
+        <v>&amp;</v>
+      </c>
+      <c r="H256" s="5"/>
+      <c r="I256" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="257" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E257" s="4" t="str">
         <f>DEC2HEX(F257)</f>
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="F257" s="5">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="G257" s="5" t="str">
         <f>CHAR(F257)</f>
-        <v></v>
+        <v>'</v>
       </c>
       <c r="H257" s="5"/>
-      <c r="L257" s="5">
-        <v>106</v>
-      </c>
-      <c r="M257" s="4" t="str">
-        <f>"wepo "&amp;H257&amp;","&amp;C257&amp;" //"&amp;L257</f>
-        <v>wepo , //106</v>
-      </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E258" s="1" t="str">
+      <c r="I257" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="258" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E258" s="4" t="str">
         <f>DEC2HEX(F258)</f>
-        <v>90</v>
-      </c>
-      <c r="F258" s="2">
-        <v>144</v>
-      </c>
-      <c r="G258" s="2" t="str">
+        <v>28</v>
+      </c>
+      <c r="F258" s="5">
+        <v>40</v>
+      </c>
+      <c r="G258" s="5" t="str">
         <f>CHAR(F258)</f>
-        <v></v>
-      </c>
-      <c r="H258" s="2"/>
-      <c r="I258" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A259" s="4" t="s">
-        <v>178</v>
-      </c>
+        <v>(</v>
+      </c>
+      <c r="H258" s="5"/>
+      <c r="I258" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="259" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E259" s="4" t="str">
         <f>DEC2HEX(F259)</f>
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="F259" s="5">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="G259" s="5" t="str">
         <f>CHAR(F259)</f>
-        <v>‘</v>
+        <v>)</v>
       </c>
       <c r="H259" s="5"/>
-      <c r="L259" s="4">
-        <v>107</v>
-      </c>
-      <c r="M259" s="4" t="str">
-        <f>"wepo "&amp;H259&amp;","&amp;C259&amp;" //"&amp;L259</f>
-        <v>wepo , //107</v>
-      </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A260" s="4" t="s">
-        <v>178</v>
-      </c>
+      <c r="I259" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="J259" s="4">
+        <v>456</v>
+      </c>
+      <c r="K259" s="4">
+        <v>459</v>
+      </c>
+      <c r="L259" s="4"/>
+    </row>
+    <row r="260" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E260" s="4" t="str">
         <f>DEC2HEX(F260)</f>
-        <v>91</v>
+        <v>2A</v>
       </c>
       <c r="F260" s="5">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="G260" s="5" t="str">
         <f>CHAR(F260)</f>
-        <v>‘</v>
+        <v>*</v>
       </c>
       <c r="H260" s="5"/>
-      <c r="L260" s="5">
-        <v>108</v>
-      </c>
-      <c r="M260" s="4" t="str">
-        <f>"wepo "&amp;H260&amp;","&amp;C260&amp;" //"&amp;L260</f>
-        <v>wepo , //108</v>
-      </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I260" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="J260" s="4">
+        <v>596</v>
+      </c>
+      <c r="K260" s="4">
+        <v>599</v>
+      </c>
+      <c r="L260" s="4"/>
+    </row>
+    <row r="261" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E261" s="1" t="str">
         <f>DEC2HEX(F261)</f>
-        <v>91</v>
+        <v>2F</v>
       </c>
       <c r="F261" s="2">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="G261" s="2" t="str">
         <f>CHAR(F261)</f>
-        <v>‘</v>
+        <v>/</v>
       </c>
       <c r="H261" s="2"/>
       <c r="I261" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A262" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E262" s="4" t="str">
+    <row r="262" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E262" s="1" t="str">
         <f>DEC2HEX(F262)</f>
-        <v>92</v>
-      </c>
-      <c r="F262" s="5">
-        <v>146</v>
-      </c>
-      <c r="G262" s="5" t="str">
+        <v>30</v>
+      </c>
+      <c r="F262" s="2">
+        <v>48</v>
+      </c>
+      <c r="G262" s="2" t="str">
         <f>CHAR(F262)</f>
-        <v>’</v>
-      </c>
-      <c r="H262" s="5"/>
-      <c r="L262" s="4">
-        <v>109</v>
-      </c>
-      <c r="M262" s="4" t="str">
-        <f>"wepo "&amp;H262&amp;","&amp;C262&amp;" //"&amp;L262</f>
-        <v>wepo , //109</v>
-      </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H262" s="2"/>
+      <c r="I262" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="263" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E263" s="1" t="str">
         <f>DEC2HEX(F263)</f>
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="F263" s="2">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="G263" s="2" t="str">
         <f>CHAR(F263)</f>
-        <v>’</v>
+        <v>1</v>
       </c>
       <c r="H263" s="2"/>
       <c r="I263" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A264" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E264" s="4" t="str">
+    <row r="264" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E264" s="1" t="str">
         <f>DEC2HEX(F264)</f>
-        <v>93</v>
-      </c>
-      <c r="F264" s="5">
-        <v>147</v>
-      </c>
-      <c r="G264" s="5" t="str">
+        <v>32</v>
+      </c>
+      <c r="F264" s="2">
+        <v>50</v>
+      </c>
+      <c r="G264" s="2" t="str">
         <f>CHAR(F264)</f>
-        <v>“</v>
-      </c>
-      <c r="H264" s="5"/>
-      <c r="L264" s="5">
-        <v>110</v>
-      </c>
-      <c r="M264" s="4" t="str">
-        <f>"wepo "&amp;H264&amp;","&amp;C264&amp;" //"&amp;L264</f>
-        <v>wepo , //110</v>
-      </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H264" s="2"/>
+      <c r="I264" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="265" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E265" s="1" t="str">
         <f>DEC2HEX(F265)</f>
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="F265" s="2">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="G265" s="2" t="str">
         <f>CHAR(F265)</f>
-        <v>“</v>
+        <v>3</v>
       </c>
       <c r="H265" s="2"/>
       <c r="I265" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A266" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E266" s="4" t="str">
+    <row r="266" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E266" s="1" t="str">
         <f>DEC2HEX(F266)</f>
-        <v>94</v>
-      </c>
-      <c r="F266" s="5">
-        <v>148</v>
-      </c>
-      <c r="G266" s="5" t="str">
+        <v>34</v>
+      </c>
+      <c r="F266" s="2">
+        <v>52</v>
+      </c>
+      <c r="G266" s="2" t="str">
         <f>CHAR(F266)</f>
-        <v>”</v>
-      </c>
-      <c r="H266" s="5"/>
-      <c r="L266" s="4">
-        <v>111</v>
-      </c>
-      <c r="M266" s="4" t="str">
-        <f>"wepo "&amp;H266&amp;","&amp;C266&amp;" //"&amp;L266</f>
-        <v>wepo , //111</v>
-      </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="H266" s="2"/>
+      <c r="I266" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="267" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E267" s="1" t="str">
         <f>DEC2HEX(F267)</f>
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="F267" s="2">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="G267" s="2" t="str">
         <f>CHAR(F267)</f>
-        <v>”</v>
+        <v>5</v>
       </c>
       <c r="H267" s="2"/>
       <c r="I267" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A268" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E268" s="4" t="str">
+    <row r="268" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E268" s="1" t="str">
         <f>DEC2HEX(F268)</f>
-        <v>95</v>
-      </c>
-      <c r="F268" s="5">
-        <v>149</v>
-      </c>
-      <c r="G268" s="5" t="str">
+        <v>36</v>
+      </c>
+      <c r="F268" s="2">
+        <v>54</v>
+      </c>
+      <c r="G268" s="2" t="str">
         <f>CHAR(F268)</f>
-        <v>•</v>
-      </c>
-      <c r="H268" s="5"/>
-      <c r="L268" s="5">
-        <v>112</v>
-      </c>
-      <c r="M268" s="4" t="str">
-        <f>"wepo "&amp;H268&amp;","&amp;C268&amp;" //"&amp;L268</f>
-        <v>wepo , //112</v>
-      </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="H268" s="2"/>
+      <c r="I268" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="269" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E269" s="1" t="str">
         <f>DEC2HEX(F269)</f>
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="F269" s="2">
-        <v>149</v>
+        <v>55</v>
       </c>
       <c r="G269" s="2" t="str">
         <f>CHAR(F269)</f>
-        <v>•</v>
+        <v>7</v>
       </c>
       <c r="H269" s="2"/>
       <c r="I269" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A270" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E270" s="4" t="str">
+    <row r="270" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E270" s="1" t="str">
         <f>DEC2HEX(F270)</f>
-        <v>96</v>
-      </c>
-      <c r="F270" s="5">
-        <v>150</v>
-      </c>
-      <c r="G270" s="5" t="str">
+        <v>38</v>
+      </c>
+      <c r="F270" s="2">
+        <v>56</v>
+      </c>
+      <c r="G270" s="2" t="str">
         <f>CHAR(F270)</f>
-        <v>–</v>
-      </c>
-      <c r="H270" s="5"/>
-      <c r="L270" s="4">
-        <v>113</v>
-      </c>
-      <c r="M270" s="4" t="str">
-        <f>"wepo "&amp;H270&amp;","&amp;C270&amp;" //"&amp;L270</f>
-        <v>wepo , //113</v>
-      </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="H270" s="2"/>
+      <c r="I270" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="271" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E271" s="1" t="str">
         <f>DEC2HEX(F271)</f>
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="F271" s="2">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="G271" s="2" t="str">
         <f>CHAR(F271)</f>
-        <v>–</v>
+        <v>9</v>
       </c>
       <c r="H271" s="2"/>
       <c r="I271" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A272" s="4" t="s">
-        <v>178</v>
-      </c>
+    <row r="272" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E272" s="4" t="str">
         <f>DEC2HEX(F272)</f>
-        <v>97</v>
+        <v>3A</v>
       </c>
       <c r="F272" s="5">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="G272" s="5" t="str">
         <f>CHAR(F272)</f>
-        <v>—</v>
-      </c>
-      <c r="H272" s="5"/>
-      <c r="L272" s="5">
-        <v>114</v>
+        <v>:</v>
+      </c>
+      <c r="H272" s="5">
+        <v>5000</v>
+      </c>
+      <c r="J272" s="1">
+        <v>892</v>
+      </c>
+      <c r="K272" s="4">
+        <v>895</v>
+      </c>
+      <c r="L272" s="4">
+        <v>181</v>
       </c>
       <c r="M272" s="4" t="str">
-        <f>"wepo "&amp;H272&amp;","&amp;C272&amp;" //"&amp;L272</f>
-        <v>wepo , //114</v>
-      </c>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E273" s="1" t="str">
+        <f>"wepo "&amp;H272&amp;","&amp;J272&amp;" //"&amp;L272</f>
+        <v>wepo 5000,892 //181</v>
+      </c>
+    </row>
+    <row r="273" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E273" s="4" t="str">
         <f>DEC2HEX(F273)</f>
-        <v>97</v>
-      </c>
-      <c r="F273" s="2">
-        <v>151</v>
-      </c>
-      <c r="G273" s="2" t="str">
+        <v>3A</v>
+      </c>
+      <c r="F273" s="5">
+        <v>58</v>
+      </c>
+      <c r="G273" s="5" t="str">
         <f>CHAR(F273)</f>
-        <v>—</v>
-      </c>
-      <c r="H273" s="2"/>
-      <c r="I273" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A274" s="4" t="s">
-        <v>178</v>
-      </c>
+        <v>:</v>
+      </c>
+      <c r="H273" s="5"/>
+      <c r="J273" s="4">
+        <v>424</v>
+      </c>
+      <c r="K273" s="4">
+        <v>427</v>
+      </c>
+      <c r="L273" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="274" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E274" s="4" t="str">
         <f>DEC2HEX(F274)</f>
-        <v>98</v>
+        <v>3B</v>
       </c>
       <c r="F274" s="5">
-        <v>152</v>
+        <v>59</v>
       </c>
       <c r="G274" s="5" t="str">
         <f>CHAR(F274)</f>
-        <v>˜</v>
+        <v>;</v>
       </c>
       <c r="H274" s="5"/>
-      <c r="L274" s="4">
-        <v>115</v>
-      </c>
-      <c r="M274" s="4" t="str">
-        <f>"wepo "&amp;H274&amp;","&amp;C274&amp;" //"&amp;L274</f>
-        <v>wepo , //115</v>
-      </c>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J274" s="4">
+        <v>428</v>
+      </c>
+      <c r="K274" s="4">
+        <v>431</v>
+      </c>
+      <c r="L274" s="5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="275" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E275" s="1" t="str">
         <f>DEC2HEX(F275)</f>
-        <v>98</v>
+        <v>5C</v>
       </c>
       <c r="F275" s="2">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="G275" s="2" t="str">
         <f>CHAR(F275)</f>
-        <v>˜</v>
+        <v>\</v>
       </c>
       <c r="H275" s="2"/>
       <c r="I275" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A276" s="4" t="s">
-        <v>178</v>
-      </c>
+    <row r="276" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E276" s="4" t="str">
         <f>DEC2HEX(F276)</f>
-        <v>99</v>
+        <v>5D</v>
       </c>
       <c r="F276" s="5">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="G276" s="5" t="str">
         <f>CHAR(F276)</f>
-        <v>™</v>
+        <v>]</v>
       </c>
       <c r="H276" s="5"/>
-      <c r="L276" s="5">
-        <v>116</v>
-      </c>
-      <c r="M276" s="4" t="str">
-        <f>"wepo "&amp;H276&amp;","&amp;C276&amp;" //"&amp;L276</f>
-        <v>wepo , //116</v>
-      </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I276" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="277" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E277" s="1" t="str">
         <f>DEC2HEX(F277)</f>
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="F277" s="2">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="G277" s="2" t="str">
         <f>CHAR(F277)</f>
-        <v>™</v>
+        <v>`</v>
       </c>
       <c r="H277" s="2"/>
       <c r="I277" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A278" s="4" t="s">
-        <v>178</v>
-      </c>
+    <row r="278" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E278" s="4" t="str">
         <f>DEC2HEX(F278)</f>
-        <v>9A</v>
+        <v>7C</v>
       </c>
       <c r="F278" s="5">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="G278" s="5" t="str">
         <f>CHAR(F278)</f>
-        <v>š</v>
+        <v>|</v>
       </c>
       <c r="H278" s="5"/>
-      <c r="L278" s="4">
-        <v>117</v>
-      </c>
-      <c r="M278" s="4" t="str">
-        <f>"wepo "&amp;H278&amp;","&amp;C278&amp;" //"&amp;L278</f>
-        <v>wepo , //117</v>
-      </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I278" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="279" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E279" s="1" t="str">
         <f>DEC2HEX(F279)</f>
-        <v>9A</v>
+        <v>7F</v>
       </c>
       <c r="F279" s="2">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="G279" s="2" t="str">
         <f>CHAR(F279)</f>
-        <v>š</v>
+        <v></v>
       </c>
       <c r="H279" s="2"/>
       <c r="I279" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A280" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E280" s="4" t="str">
+    <row r="280" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E280" s="1" t="str">
         <f>DEC2HEX(F280)</f>
-        <v>9B</v>
-      </c>
-      <c r="F280" s="5">
-        <v>155</v>
-      </c>
-      <c r="G280" s="5" t="str">
+        <v>80</v>
+      </c>
+      <c r="F280" s="2">
+        <v>128</v>
+      </c>
+      <c r="G280" s="2" t="str">
         <f>CHAR(F280)</f>
-        <v>›</v>
-      </c>
-      <c r="H280" s="5"/>
-      <c r="L280" s="5">
-        <v>118</v>
-      </c>
-      <c r="M280" s="4" t="str">
-        <f>"wepo "&amp;H280&amp;","&amp;C280&amp;" //"&amp;L280</f>
-        <v>wepo , //118</v>
-      </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+        <v>€</v>
+      </c>
+      <c r="H280" s="2"/>
+      <c r="I280" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="281" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E281" s="1" t="str">
         <f>DEC2HEX(F281)</f>
-        <v>9B</v>
+        <v>81</v>
       </c>
       <c r="F281" s="2">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="G281" s="2" t="str">
         <f>CHAR(F281)</f>
-        <v>›</v>
+        <v></v>
       </c>
       <c r="H281" s="2"/>
       <c r="I281" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A282" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E282" s="4" t="str">
+    <row r="282" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E282" s="1" t="str">
         <f>DEC2HEX(F282)</f>
-        <v>9C</v>
-      </c>
-      <c r="F282" s="5">
-        <v>156</v>
-      </c>
-      <c r="G282" s="5" t="str">
+        <v>82</v>
+      </c>
+      <c r="F282" s="2">
+        <v>130</v>
+      </c>
+      <c r="G282" s="2" t="str">
         <f>CHAR(F282)</f>
-        <v>œ</v>
-      </c>
-      <c r="H282" s="5"/>
-      <c r="L282" s="4">
-        <v>119</v>
-      </c>
-      <c r="M282" s="4" t="str">
-        <f>"wepo "&amp;H282&amp;","&amp;C282&amp;" //"&amp;L282</f>
-        <v>wepo , //119</v>
-      </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+        <v>‚</v>
+      </c>
+      <c r="H282" s="2"/>
+      <c r="I282" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="283" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E283" s="1" t="str">
         <f>DEC2HEX(F283)</f>
-        <v>9C</v>
+        <v>83</v>
       </c>
       <c r="F283" s="2">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="G283" s="2" t="str">
         <f>CHAR(F283)</f>
-        <v>œ</v>
+        <v>ƒ</v>
       </c>
       <c r="H283" s="2"/>
       <c r="I283" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A284" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E284" s="4" t="str">
+    <row r="284" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E284" s="1" t="str">
         <f>DEC2HEX(F284)</f>
-        <v>9D</v>
-      </c>
-      <c r="F284" s="5">
-        <v>157</v>
-      </c>
-      <c r="G284" s="5" t="str">
+        <v>84</v>
+      </c>
+      <c r="F284" s="2">
+        <v>132</v>
+      </c>
+      <c r="G284" s="2" t="str">
         <f>CHAR(F284)</f>
-        <v></v>
-      </c>
-      <c r="H284" s="5"/>
-      <c r="L284" s="5">
-        <v>120</v>
-      </c>
-      <c r="M284" s="4" t="str">
-        <f>"wepo "&amp;H284&amp;","&amp;C284&amp;" //"&amp;L284</f>
-        <v>wepo , //120</v>
-      </c>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+        <v>„</v>
+      </c>
+      <c r="H284" s="2"/>
+      <c r="I284" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="285" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E285" s="1" t="str">
         <f>DEC2HEX(F285)</f>
-        <v>9D</v>
+        <v>85</v>
       </c>
       <c r="F285" s="2">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="G285" s="2" t="str">
         <f>CHAR(F285)</f>
-        <v></v>
+        <v>…</v>
       </c>
       <c r="H285" s="2"/>
       <c r="I285" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A286" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E286" s="4" t="str">
+    <row r="286" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E286" s="1" t="str">
         <f>DEC2HEX(F286)</f>
-        <v>9E</v>
-      </c>
-      <c r="F286" s="5">
-        <v>158</v>
-      </c>
-      <c r="G286" s="5" t="str">
+        <v>86</v>
+      </c>
+      <c r="F286" s="2">
+        <v>134</v>
+      </c>
+      <c r="G286" s="2" t="str">
         <f>CHAR(F286)</f>
-        <v>ž</v>
-      </c>
-      <c r="H286" s="5"/>
-      <c r="L286" s="4">
-        <v>121</v>
-      </c>
-      <c r="M286" s="4" t="str">
-        <f>"wepo "&amp;H286&amp;","&amp;C286&amp;" //"&amp;L286</f>
-        <v>wepo , //121</v>
-      </c>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+        <v>†</v>
+      </c>
+      <c r="H286" s="2"/>
+      <c r="I286" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="287" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E287" s="1" t="str">
         <f>DEC2HEX(F287)</f>
-        <v>9E</v>
+        <v>87</v>
       </c>
       <c r="F287" s="2">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G287" s="2" t="str">
         <f>CHAR(F287)</f>
-        <v>ž</v>
+        <v>‡</v>
       </c>
       <c r="H287" s="2"/>
       <c r="I287" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A288" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E288" s="4" t="str">
+    <row r="288" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E288" s="1" t="str">
         <f>DEC2HEX(F288)</f>
-        <v>9F</v>
-      </c>
-      <c r="F288" s="5">
-        <v>159</v>
-      </c>
-      <c r="G288" s="5" t="str">
+        <v>88</v>
+      </c>
+      <c r="F288" s="2">
+        <v>136</v>
+      </c>
+      <c r="G288" s="2" t="str">
         <f>CHAR(F288)</f>
-        <v>Ÿ</v>
-      </c>
-      <c r="H288" s="5"/>
-      <c r="L288" s="5">
-        <v>122</v>
-      </c>
-      <c r="M288" s="4" t="str">
-        <f>"wepo "&amp;H288&amp;","&amp;C288&amp;" //"&amp;L288</f>
-        <v>wepo , //122</v>
-      </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+        <v>ˆ</v>
+      </c>
+      <c r="H288" s="2"/>
+      <c r="I288" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="289" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E289" s="1" t="str">
         <f>DEC2HEX(F289)</f>
-        <v>9F</v>
+        <v>89</v>
       </c>
       <c r="F289" s="2">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="G289" s="2" t="str">
         <f>CHAR(F289)</f>
-        <v>Ÿ</v>
+        <v>‰</v>
       </c>
       <c r="H289" s="2"/>
       <c r="I289" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A290" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E290" s="4" t="str">
+    <row r="290" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E290" s="1" t="str">
         <f>DEC2HEX(F290)</f>
-        <v>A0</v>
-      </c>
-      <c r="F290" s="5">
-        <v>160</v>
-      </c>
-      <c r="G290" s="5" t="str">
+        <v>8A</v>
+      </c>
+      <c r="F290" s="2">
+        <v>138</v>
+      </c>
+      <c r="G290" s="2" t="str">
         <f>CHAR(F290)</f>
-        <v> </v>
-      </c>
-      <c r="H290" s="5"/>
-      <c r="L290" s="4">
-        <v>123</v>
-      </c>
-      <c r="M290" s="4" t="str">
-        <f>"wepo "&amp;H290&amp;","&amp;C290&amp;" //"&amp;L290</f>
-        <v>wepo , //123</v>
-      </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+        <v>Š</v>
+      </c>
+      <c r="H290" s="2"/>
+      <c r="I290" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="291" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E291" s="1" t="str">
         <f>DEC2HEX(F291)</f>
-        <v>A0</v>
+        <v>8B</v>
       </c>
       <c r="F291" s="2">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="G291" s="2" t="str">
         <f>CHAR(F291)</f>
-        <v> </v>
+        <v>‹</v>
       </c>
       <c r="H291" s="2"/>
       <c r="I291" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E292" s="4" t="str">
+    <row r="292" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E292" s="1" t="str">
         <f>DEC2HEX(F292)</f>
-        <v>A1</v>
-      </c>
-      <c r="F292" s="5">
-        <v>161</v>
-      </c>
-      <c r="G292" s="5" t="str">
+        <v>8C</v>
+      </c>
+      <c r="F292" s="2">
+        <v>140</v>
+      </c>
+      <c r="G292" s="2" t="str">
         <f>CHAR(F292)</f>
-        <v>¡</v>
-      </c>
-      <c r="H292" s="5">
-        <v>5000</v>
-      </c>
-      <c r="J292" s="4">
-        <v>4</v>
-      </c>
-      <c r="K292" s="4">
-        <v>7</v>
-      </c>
-      <c r="L292" s="5">
-        <v>2</v>
-      </c>
-      <c r="M292" s="4" t="str">
-        <f>"wepo "&amp;H292&amp;","&amp;J292&amp;" //"&amp;L292</f>
-        <v>wepo 5000,4 //2</v>
-      </c>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A293" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="B293" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="E293" s="4" t="str">
+        <v>Œ</v>
+      </c>
+      <c r="H292" s="2"/>
+      <c r="I292" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="293" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E293" s="1" t="str">
         <f>DEC2HEX(F293)</f>
-        <v>A3</v>
-      </c>
-      <c r="F293" s="5">
-        <v>163</v>
-      </c>
-      <c r="G293" s="5" t="str">
+        <v>8D</v>
+      </c>
+      <c r="F293" s="2">
+        <v>141</v>
+      </c>
+      <c r="G293" s="2" t="str">
         <f>CHAR(F293)</f>
-        <v>£</v>
-      </c>
-      <c r="H293" s="5"/>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A294" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="B294" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="E294" s="4" t="str">
+        <v></v>
+      </c>
+      <c r="H293" s="2"/>
+      <c r="I293" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="294" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E294" s="1" t="str">
         <f>DEC2HEX(F294)</f>
-        <v>A4</v>
-      </c>
-      <c r="F294" s="5">
-        <v>164</v>
-      </c>
-      <c r="G294" s="5" t="str">
+        <v>8E</v>
+      </c>
+      <c r="F294" s="2">
+        <v>142</v>
+      </c>
+      <c r="G294" s="2" t="str">
         <f>CHAR(F294)</f>
-        <v>¤</v>
-      </c>
-      <c r="H294" s="5"/>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A295" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B295" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E295" s="4" t="str">
+        <v>Ž</v>
+      </c>
+      <c r="H294" s="2"/>
+      <c r="I294" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="295" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E295" s="1" t="str">
         <f>DEC2HEX(F295)</f>
-        <v>A5</v>
-      </c>
-      <c r="F295" s="5">
-        <v>165</v>
-      </c>
-      <c r="G295" s="5" t="str">
+        <v>8F</v>
+      </c>
+      <c r="F295" s="2">
+        <v>143</v>
+      </c>
+      <c r="G295" s="2" t="str">
         <f>CHAR(F295)</f>
-        <v>¥</v>
-      </c>
-      <c r="H295" s="5"/>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A296" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B296" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E296" s="4" t="str">
+        <v></v>
+      </c>
+      <c r="H295" s="2"/>
+      <c r="I295" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="296" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E296" s="1" t="str">
         <f>DEC2HEX(F296)</f>
-        <v>A6</v>
-      </c>
-      <c r="F296" s="5">
-        <v>166</v>
-      </c>
-      <c r="G296" s="5" t="str">
+        <v>90</v>
+      </c>
+      <c r="F296" s="2">
+        <v>144</v>
+      </c>
+      <c r="G296" s="2" t="str">
         <f>CHAR(F296)</f>
-        <v>¦</v>
-      </c>
-      <c r="H296" s="5"/>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E297" s="4" t="str">
+        <v></v>
+      </c>
+      <c r="H296" s="2"/>
+      <c r="I296" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="297" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E297" s="1" t="str">
         <f>DEC2HEX(F297)</f>
-        <v>A9</v>
-      </c>
-      <c r="F297" s="5">
-        <v>169</v>
-      </c>
-      <c r="G297" s="5" t="str">
+        <v>91</v>
+      </c>
+      <c r="F297" s="2">
+        <v>145</v>
+      </c>
+      <c r="G297" s="2" t="str">
         <f>CHAR(F297)</f>
-        <v>©</v>
-      </c>
-      <c r="H297" s="5"/>
-      <c r="I297" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E298" s="4" t="str">
+        <v>‘</v>
+      </c>
+      <c r="H297" s="2"/>
+      <c r="I297" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="298" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E298" s="1" t="str">
         <f>DEC2HEX(F298)</f>
-        <v>AA</v>
-      </c>
-      <c r="F298" s="5">
-        <v>170</v>
-      </c>
-      <c r="G298" s="5" t="str">
+        <v>92</v>
+      </c>
+      <c r="F298" s="2">
+        <v>146</v>
+      </c>
+      <c r="G298" s="2" t="str">
         <f>CHAR(F298)</f>
-        <v>ª</v>
-      </c>
-      <c r="H298" s="5"/>
-      <c r="I298" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A299" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B299" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E299" s="4" t="str">
+        <v>’</v>
+      </c>
+      <c r="H298" s="2"/>
+      <c r="I298" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="299" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E299" s="1" t="str">
         <f>DEC2HEX(F299)</f>
-        <v>AB</v>
-      </c>
-      <c r="F299" s="5">
-        <v>171</v>
-      </c>
-      <c r="G299" s="5" t="str">
+        <v>93</v>
+      </c>
+      <c r="F299" s="2">
+        <v>147</v>
+      </c>
+      <c r="G299" s="2" t="str">
         <f>CHAR(F299)</f>
-        <v>«</v>
-      </c>
-      <c r="H299" s="5"/>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A300" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B300" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E300" s="4" t="str">
+        <v>“</v>
+      </c>
+      <c r="H299" s="2"/>
+      <c r="I299" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="300" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E300" s="1" t="str">
         <f>DEC2HEX(F300)</f>
-        <v>AC</v>
-      </c>
-      <c r="F300" s="5">
-        <v>172</v>
-      </c>
-      <c r="G300" s="5" t="str">
+        <v>94</v>
+      </c>
+      <c r="F300" s="2">
+        <v>148</v>
+      </c>
+      <c r="G300" s="2" t="str">
         <f>CHAR(F300)</f>
-        <v>¬</v>
-      </c>
-      <c r="H300" s="5"/>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+        <v>”</v>
+      </c>
+      <c r="H300" s="2"/>
+      <c r="I300" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="301" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E301" s="1" t="str">
         <f>DEC2HEX(F301)</f>
-        <v>AD</v>
+        <v>95</v>
       </c>
       <c r="F301" s="2">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="G301" s="2" t="str">
         <f>CHAR(F301)</f>
-        <v>­</v>
+        <v>•</v>
       </c>
       <c r="H301" s="2"/>
       <c r="I301" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E302" s="4" t="str">
+    <row r="302" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E302" s="1" t="str">
         <f>DEC2HEX(F302)</f>
-        <v>AF</v>
-      </c>
-      <c r="F302" s="5">
-        <v>175</v>
-      </c>
-      <c r="G302" s="5" t="str">
+        <v>96</v>
+      </c>
+      <c r="F302" s="2">
+        <v>150</v>
+      </c>
+      <c r="G302" s="2" t="str">
         <f>CHAR(F302)</f>
-        <v>¯</v>
-      </c>
-      <c r="H302" s="5">
-        <v>5000</v>
-      </c>
-      <c r="I302" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="J302" s="4">
-        <v>28</v>
-      </c>
-      <c r="K302" s="4">
-        <v>31</v>
-      </c>
-      <c r="L302" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E303" s="4" t="str">
+        <v>–</v>
+      </c>
+      <c r="H302" s="2"/>
+      <c r="I302" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="303" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E303" s="1" t="str">
         <f>DEC2HEX(F303)</f>
-        <v>B0</v>
-      </c>
-      <c r="F303" s="5">
-        <v>176</v>
-      </c>
-      <c r="G303" s="5" t="str">
+        <v>97</v>
+      </c>
+      <c r="F303" s="2">
+        <v>151</v>
+      </c>
+      <c r="G303" s="2" t="str">
         <f>CHAR(F303)</f>
-        <v>°</v>
-      </c>
-      <c r="H303" s="5">
-        <v>1</v>
-      </c>
-      <c r="I303" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="J303" s="4">
-        <v>32</v>
-      </c>
-      <c r="K303" s="4">
-        <v>35</v>
-      </c>
-      <c r="L303" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A304" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B304" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E304" s="4" t="str">
+        <v>—</v>
+      </c>
+      <c r="H303" s="2"/>
+      <c r="I303" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="304" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E304" s="1" t="str">
         <f>DEC2HEX(F304)</f>
-        <v>B1</v>
-      </c>
-      <c r="F304" s="5">
-        <v>177</v>
-      </c>
-      <c r="G304" s="5" t="str">
+        <v>98</v>
+      </c>
+      <c r="F304" s="2">
+        <v>152</v>
+      </c>
+      <c r="G304" s="2" t="str">
         <f>CHAR(F304)</f>
-        <v>±</v>
-      </c>
-      <c r="H304" s="5"/>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A305" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B305" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E305" s="4" t="str">
+        <v>˜</v>
+      </c>
+      <c r="H304" s="2"/>
+      <c r="I304" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="305" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E305" s="1" t="str">
         <f>DEC2HEX(F305)</f>
-        <v>B2</v>
-      </c>
-      <c r="F305" s="5">
-        <v>178</v>
-      </c>
-      <c r="G305" s="5" t="str">
+        <v>99</v>
+      </c>
+      <c r="F305" s="2">
+        <v>153</v>
+      </c>
+      <c r="G305" s="2" t="str">
         <f>CHAR(F305)</f>
-        <v>²</v>
-      </c>
-      <c r="H305" s="5"/>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+        <v>™</v>
+      </c>
+      <c r="H305" s="2"/>
+      <c r="I305" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="306" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E306" s="1" t="str">
         <f>DEC2HEX(F306)</f>
-        <v>B4</v>
+        <v>9A</v>
       </c>
       <c r="F306" s="2">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="G306" s="2" t="str">
         <f>CHAR(F306)</f>
-        <v>´</v>
+        <v>š</v>
       </c>
       <c r="H306" s="2"/>
       <c r="I306" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A307" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B307" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E307" s="4" t="str">
+    <row r="307" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E307" s="1" t="str">
         <f>DEC2HEX(F307)</f>
-        <v>B7</v>
-      </c>
-      <c r="F307" s="5">
-        <v>183</v>
-      </c>
-      <c r="G307" s="5" t="str">
+        <v>9B</v>
+      </c>
+      <c r="F307" s="2">
+        <v>155</v>
+      </c>
+      <c r="G307" s="2" t="str">
         <f>CHAR(F307)</f>
-        <v>·</v>
-      </c>
-      <c r="H307" s="5"/>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A308" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B308" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E308" s="4" t="str">
+        <v>›</v>
+      </c>
+      <c r="H307" s="2"/>
+      <c r="I307" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="308" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E308" s="1" t="str">
         <f>DEC2HEX(F308)</f>
-        <v>B8</v>
-      </c>
-      <c r="F308" s="5">
-        <v>184</v>
-      </c>
-      <c r="G308" s="5" t="str">
+        <v>9C</v>
+      </c>
+      <c r="F308" s="2">
+        <v>156</v>
+      </c>
+      <c r="G308" s="2" t="str">
         <f>CHAR(F308)</f>
-        <v>¸</v>
-      </c>
-      <c r="H308" s="5"/>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E309" s="4" t="str">
+        <v>œ</v>
+      </c>
+      <c r="H308" s="2"/>
+      <c r="I308" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="309" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E309" s="1" t="str">
         <f>DEC2HEX(F309)</f>
-        <v>C2</v>
-      </c>
-      <c r="F309" s="5">
-        <v>194</v>
-      </c>
-      <c r="G309" s="5" t="str">
+        <v>9D</v>
+      </c>
+      <c r="F309" s="2">
+        <v>157</v>
+      </c>
+      <c r="G309" s="2" t="str">
         <f>CHAR(F309)</f>
-        <v>Â</v>
-      </c>
-      <c r="H309" s="5">
-        <v>0</v>
-      </c>
-      <c r="I309" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="J309" s="4">
-        <v>668</v>
-      </c>
-      <c r="K309" s="4">
-        <v>677</v>
-      </c>
-      <c r="L309" s="4">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E310" s="4" t="str">
+        <v></v>
+      </c>
+      <c r="H309" s="2"/>
+      <c r="I309" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="310" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E310" s="1" t="str">
         <f>DEC2HEX(F310)</f>
-        <v>C3</v>
-      </c>
-      <c r="F310" s="5">
-        <v>195</v>
-      </c>
-      <c r="G310" s="5" t="str">
+        <v>9E</v>
+      </c>
+      <c r="F310" s="2">
+        <v>158</v>
+      </c>
+      <c r="G310" s="2" t="str">
         <f>CHAR(F310)</f>
-        <v>Ã</v>
-      </c>
-      <c r="H310" s="5">
-        <v>0</v>
-      </c>
-      <c r="I310" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="J310" s="4">
-        <v>688</v>
-      </c>
-      <c r="K310" s="4">
-        <v>697</v>
-      </c>
-      <c r="L310" s="4">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A311" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B311" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E311" s="4" t="str">
+        <v>ž</v>
+      </c>
+      <c r="H310" s="2"/>
+      <c r="I310" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="311" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E311" s="1" t="str">
         <f>DEC2HEX(F311)</f>
-        <v>C6</v>
-      </c>
-      <c r="F311" s="5">
-        <v>198</v>
-      </c>
-      <c r="G311" s="5" t="str">
+        <v>9F</v>
+      </c>
+      <c r="F311" s="2">
+        <v>159</v>
+      </c>
+      <c r="G311" s="2" t="str">
         <f>CHAR(F311)</f>
-        <v>Æ</v>
-      </c>
-      <c r="H311" s="5"/>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C312" s="5"/>
-      <c r="D312" s="5"/>
-      <c r="E312" s="4" t="str">
+        <v>Ÿ</v>
+      </c>
+      <c r="H311" s="2"/>
+      <c r="I311" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="312" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E312" s="1" t="str">
         <f>DEC2HEX(F312)</f>
-        <v>C8</v>
-      </c>
-      <c r="F312" s="5">
-        <v>200</v>
-      </c>
-      <c r="G312" s="5" t="str">
+        <v>A0</v>
+      </c>
+      <c r="F312" s="2">
+        <v>160</v>
+      </c>
+      <c r="G312" s="2" t="str">
         <f>CHAR(F312)</f>
-        <v>È</v>
-      </c>
-      <c r="H312" s="5">
-        <v>5000</v>
-      </c>
-      <c r="J312" s="5">
-        <v>534</v>
-      </c>
-      <c r="K312" s="5">
-        <v>539</v>
-      </c>
-      <c r="L312" s="4">
-        <v>131</v>
-      </c>
-      <c r="M312" s="4" t="str">
-        <f>"wepo "&amp;H312&amp;","&amp;C312&amp;" //"&amp;L312</f>
-        <v>wepo 5000, //131</v>
-      </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A313" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B313" s="4" t="s">
-        <v>138</v>
-      </c>
+        <v> </v>
+      </c>
+      <c r="H312" s="2"/>
+      <c r="I312" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="313" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E313" s="4" t="str">
         <f>DEC2HEX(F313)</f>
-        <v>C9</v>
+        <v>A1</v>
       </c>
       <c r="F313" s="5">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="G313" s="5" t="str">
         <f>CHAR(F313)</f>
-        <v>É</v>
-      </c>
-      <c r="H313" s="5"/>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A314" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B314" s="4" t="s">
-        <v>205</v>
-      </c>
+        <v>¡</v>
+      </c>
+      <c r="H313" s="5">
+        <v>5000</v>
+      </c>
+      <c r="J313" s="4">
+        <v>4</v>
+      </c>
+      <c r="K313" s="4">
+        <v>7</v>
+      </c>
+      <c r="L313" s="5">
+        <v>2</v>
+      </c>
+      <c r="M313" s="4" t="str">
+        <f>"wepo "&amp;H313&amp;","&amp;J313&amp;" //"&amp;L313</f>
+        <v>wepo 5000,4 //2</v>
+      </c>
+    </row>
+    <row r="314" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E314" s="4" t="str">
         <f>DEC2HEX(F314)</f>
-        <v>CE</v>
+        <v>AA</v>
       </c>
       <c r="F314" s="5">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="G314" s="5" t="str">
         <f>CHAR(F314)</f>
-        <v>Î</v>
+        <v>ª</v>
       </c>
       <c r="H314" s="5"/>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A315" s="4" t="s">
+      <c r="I314" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="315" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E315" s="1" t="str">
+        <f>DEC2HEX(F315)</f>
+        <v>AD</v>
+      </c>
+      <c r="F315" s="2">
+        <v>173</v>
+      </c>
+      <c r="G315" s="2" t="str">
+        <f>CHAR(F315)</f>
+        <v>­</v>
+      </c>
+      <c r="H315" s="2"/>
+      <c r="I315" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="316" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E316" s="4" t="str">
+        <f>DEC2HEX(F316)</f>
+        <v>AF</v>
+      </c>
+      <c r="F316" s="5">
         <v>175</v>
-      </c>
-      <c r="B315" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E315" s="4" t="str">
-        <f>DEC2HEX(F315)</f>
-        <v>CF</v>
-      </c>
-      <c r="F315" s="5">
-        <v>207</v>
-      </c>
-      <c r="G315" s="5" t="str">
-        <f>CHAR(F315)</f>
-        <v>Ï</v>
-      </c>
-      <c r="H315" s="5"/>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E316" s="5" t="str">
-        <f>DEC2HEX(F316)</f>
-        <v>D2</v>
-      </c>
-      <c r="F316" s="5">
-        <v>210</v>
       </c>
       <c r="G316" s="5" t="str">
         <f>CHAR(F316)</f>
-        <v>Ò</v>
+        <v>¯</v>
       </c>
       <c r="H316" s="5">
-        <v>50</v>
-      </c>
-      <c r="J316" s="2">
-        <v>804</v>
-      </c>
-      <c r="K316" s="5">
-        <v>807</v>
+        <v>5000</v>
+      </c>
+      <c r="I316" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="J316" s="4">
+        <v>28</v>
+      </c>
+      <c r="K316" s="4">
+        <v>31</v>
       </c>
       <c r="L316" s="5">
-        <v>164</v>
-      </c>
-      <c r="M316" s="4" t="str">
-        <f>"wepo "&amp;H316&amp;","&amp;J316&amp;" //"&amp;L316</f>
-        <v>wepo 50,804 //164</v>
-      </c>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A317" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B317" s="4" t="s">
-        <v>204</v>
-      </c>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="317" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E317" s="4" t="str">
         <f>DEC2HEX(F317)</f>
-        <v>D7</v>
+        <v>B0</v>
       </c>
       <c r="F317" s="5">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="G317" s="5" t="str">
         <f>CHAR(F317)</f>
-        <v>×</v>
-      </c>
-      <c r="H317" s="5"/>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A318" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B318" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E318" s="4" t="str">
+        <v>°</v>
+      </c>
+      <c r="H317" s="5">
+        <v>1</v>
+      </c>
+      <c r="I317" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="J317" s="4">
+        <v>32</v>
+      </c>
+      <c r="K317" s="4">
+        <v>35</v>
+      </c>
+      <c r="L317" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="318" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E318" s="1" t="str">
         <f>DEC2HEX(F318)</f>
-        <v>E7</v>
-      </c>
-      <c r="F318" s="5">
-        <v>231</v>
-      </c>
-      <c r="G318" s="5" t="str">
+        <v>B4</v>
+      </c>
+      <c r="F318" s="2">
+        <v>180</v>
+      </c>
+      <c r="G318" s="2" t="str">
         <f>CHAR(F318)</f>
-        <v>ç</v>
-      </c>
-      <c r="H318" s="5"/>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A319" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B319" s="4" t="s">
-        <v>100</v>
-      </c>
+        <v>´</v>
+      </c>
+      <c r="H318" s="2"/>
+      <c r="I318" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="319" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E319" s="4" t="str">
         <f>DEC2HEX(F319)</f>
-        <v>EC</v>
+        <v>C2</v>
       </c>
       <c r="F319" s="5">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="G319" s="5" t="str">
         <f>CHAR(F319)</f>
-        <v>ì</v>
-      </c>
-      <c r="H319" s="5"/>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A320" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B320" s="4" t="s">
-        <v>163</v>
-      </c>
+        <v>Â</v>
+      </c>
+      <c r="H319" s="5">
+        <v>0</v>
+      </c>
+      <c r="I319" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="J319" s="4">
+        <v>668</v>
+      </c>
+      <c r="K319" s="4">
+        <v>677</v>
+      </c>
+      <c r="L319" s="4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="320" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E320" s="4" t="str">
         <f>DEC2HEX(F320)</f>
-        <v>F7</v>
+        <v>C3</v>
       </c>
       <c r="F320" s="5">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="G320" s="5" t="str">
         <f>CHAR(F320)</f>
-        <v>÷</v>
-      </c>
-      <c r="H320" s="5"/>
-    </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+        <v>Ã</v>
+      </c>
+      <c r="H320" s="5">
+        <v>0</v>
+      </c>
+      <c r="I320" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="J320" s="4">
+        <v>688</v>
+      </c>
+      <c r="K320" s="4">
+        <v>697</v>
+      </c>
+      <c r="L320" s="4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="321" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C321" s="5"/>
+      <c r="D321" s="5"/>
       <c r="E321" s="4" t="str">
         <f>DEC2HEX(F321)</f>
-        <v>F8</v>
+        <v>C8</v>
       </c>
       <c r="F321" s="5">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="G321" s="5" t="str">
         <f>CHAR(F321)</f>
-        <v>ø</v>
+        <v>È</v>
       </c>
       <c r="H321" s="5">
         <v>5000</v>
       </c>
       <c r="J321" s="5">
-        <v>296</v>
+        <v>534</v>
       </c>
       <c r="K321" s="5">
-        <v>299</v>
-      </c>
-      <c r="L321" s="5">
-        <v>56</v>
+        <v>539</v>
+      </c>
+      <c r="L321" s="4">
+        <v>131</v>
       </c>
       <c r="M321" s="4" t="str">
-        <f>"wepo "&amp;H321&amp;","&amp;J321&amp;" //"&amp;L321</f>
-        <v>wepo 5000,296 //56</v>
-      </c>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C322" s="5"/>
-      <c r="D322" s="5"/>
-      <c r="E322" s="4" t="str">
+        <f>"wepo "&amp;H321&amp;","&amp;C321&amp;" //"&amp;L321</f>
+        <v>wepo 5000, //131</v>
+      </c>
+    </row>
+    <row r="322" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E322" s="5" t="str">
         <f>DEC2HEX(F322)</f>
-        <v>FE</v>
+        <v>D2</v>
       </c>
       <c r="F322" s="5">
-        <v>254</v>
+        <v>210</v>
       </c>
       <c r="G322" s="5" t="str">
         <f>CHAR(F322)</f>
-        <v>þ</v>
+        <v>Ò</v>
       </c>
       <c r="H322" s="5">
         <v>50</v>
       </c>
-      <c r="J322" s="5">
+      <c r="J322" s="2">
+        <v>804</v>
+      </c>
+      <c r="K322" s="5">
+        <v>807</v>
+      </c>
+      <c r="L322" s="5">
+        <v>164</v>
+      </c>
+      <c r="M322" s="4" t="str">
+        <f>"wepo "&amp;H322&amp;","&amp;J322&amp;" //"&amp;L322</f>
+        <v>wepo 50,804 //164</v>
+      </c>
+    </row>
+    <row r="323" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E323" s="4" t="str">
+        <f>DEC2HEX(F323)</f>
+        <v>F8</v>
+      </c>
+      <c r="F323" s="5">
+        <v>248</v>
+      </c>
+      <c r="G323" s="5" t="str">
+        <f>CHAR(F323)</f>
+        <v>ø</v>
+      </c>
+      <c r="H323" s="5">
+        <v>5000</v>
+      </c>
+      <c r="J323" s="5">
+        <v>296</v>
+      </c>
+      <c r="K323" s="5">
+        <v>299</v>
+      </c>
+      <c r="L323" s="5">
+        <v>56</v>
+      </c>
+      <c r="M323" s="4" t="str">
+        <f>"wepo "&amp;H323&amp;","&amp;J323&amp;" //"&amp;L323</f>
+        <v>wepo 5000,296 //56</v>
+      </c>
+    </row>
+    <row r="324" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C324" s="5"/>
+      <c r="D324" s="5"/>
+      <c r="E324" s="4" t="str">
+        <f>DEC2HEX(F324)</f>
+        <v>FE</v>
+      </c>
+      <c r="F324" s="5">
+        <v>254</v>
+      </c>
+      <c r="G324" s="5" t="str">
+        <f>CHAR(F324)</f>
+        <v>þ</v>
+      </c>
+      <c r="H324" s="5">
+        <v>50</v>
+      </c>
+      <c r="J324" s="5">
         <v>392</v>
       </c>
-      <c r="K322" s="5">
+      <c r="K324" s="5">
         <v>395</v>
       </c>
-      <c r="L322" s="4">
+      <c r="L324" s="4">
         <v>69</v>
       </c>
-      <c r="M322" s="4" t="str">
-        <f>"wepo "&amp;H322&amp;","&amp;C322&amp;" //"&amp;L322</f>
+      <c r="M324" s="4" t="str">
+        <f>"wepo "&amp;H324&amp;","&amp;C324&amp;" //"&amp;L324</f>
         <v>wepo 50, //69</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E323" s="1" t="str">
-        <f>DEC2HEX(F323)</f>
+    <row r="325" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E325" s="1" t="str">
+        <f>DEC2HEX(F325)</f>
         <v>FF</v>
       </c>
-      <c r="F323" s="2">
+      <c r="F325" s="2">
         <v>255</v>
       </c>
-      <c r="G323" s="2" t="str">
-        <f>CHAR(F323)</f>
+      <c r="G325" s="2" t="str">
+        <f>CHAR(F325)</f>
         <v>ÿ</v>
       </c>
-      <c r="H323" s="2"/>
-      <c r="I323" s="1" t="s">
+      <c r="H325" s="2"/>
+      <c r="I325" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A324" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F324" s="5"/>
-      <c r="G324" s="5"/>
-      <c r="H324" s="5"/>
-      <c r="J324" s="4">
-        <v>888</v>
-      </c>
-      <c r="K324" s="4">
-        <v>891</v>
-      </c>
-      <c r="L324" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A325" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F325" s="5"/>
-      <c r="G325" s="5"/>
-      <c r="H325" s="5"/>
-      <c r="J325" s="4">
-        <v>928</v>
-      </c>
-      <c r="K325" s="4">
-        <v>931</v>
-      </c>
-      <c r="L325" s="4">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E326" s="1"/>
       <c r="F326" s="2"/>
       <c r="G326" s="2"/>
@@ -11313,22 +11324,22 @@
         <v>243</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:13" x14ac:dyDescent="0.25">
       <c r="H327" s="5"/>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F328" s="5"/>
       <c r="G328" s="5"/>
       <c r="H328" s="5"/>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:13" x14ac:dyDescent="0.25">
       <c r="J331" s="4"/>
       <c r="K331" s="4"/>
       <c r="L331" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M331">
-    <sortCondition ref="C2:C331"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M332">
+    <sortCondition ref="C2:C332"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
